--- a/national_dta.xlsx
+++ b/national_dta.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonoshah/Documents/quickstatsdatabase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonoshah/quick_stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Education" sheetId="1" r:id="rId1"/>
+    <sheet name="Education" sheetId="3" r:id="rId1"/>
     <sheet name="CVAP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="50">
   <si>
     <t>total_pop</t>
   </si>
@@ -171,26 +171,46 @@
     <t>Asian Alone/Combo</t>
   </si>
   <si>
-    <t>Native Hawaiian and Other Pacific Islander alone/combo</t>
-  </si>
-  <si>
-    <t>Native Hawaiian and Other Pacific Islander alone</t>
-  </si>
-  <si>
     <t>Native Hawaiian and Other Pacific Islander Alone</t>
   </si>
   <si>
     <t>Native Hawaiian and Other Pacific Islander Alone/Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese (except Taiwanese) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,13 +233,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -497,15 +526,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="124" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -535,7 +563,7 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2">
@@ -551,14 +579,14 @@
         <v>39166047</v>
       </c>
       <c r="G2">
-        <v>23786225</v>
+        <v>62952272</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C3">
@@ -574,14 +602,14 @@
         <v>3330457</v>
       </c>
       <c r="G3">
-        <v>2440065</v>
+        <v>5770522</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C4">
@@ -597,14 +625,14 @@
         <v>730705</v>
       </c>
       <c r="G4">
-        <v>906402</v>
+        <v>1637107</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5">
@@ -620,14 +648,14 @@
         <v>23957</v>
       </c>
       <c r="G5">
-        <v>21288</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C6">
@@ -643,15 +671,15 @@
         <v>21464</v>
       </c>
       <c r="G6">
-        <v>6776</v>
+        <v>28240</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C7">
         <v>2575144</v>
@@ -666,14 +694,14 @@
         <v>665711</v>
       </c>
       <c r="G7">
-        <v>685140</v>
+        <v>1350851</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8">
@@ -689,14 +717,14 @@
         <v>33920</v>
       </c>
       <c r="G8">
-        <v>50107</v>
+        <v>84027</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C9">
@@ -712,14 +740,14 @@
         <v>780469</v>
       </c>
       <c r="G9">
-        <v>178812</v>
+        <v>959281</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C10">
@@ -735,14 +763,14 @@
         <v>15597</v>
       </c>
       <c r="G10">
-        <v>4298</v>
+        <v>19895</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C11">
@@ -758,14 +786,14 @@
         <v>15269</v>
       </c>
       <c r="G11">
-        <v>8294</v>
+        <v>23563</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C12">
@@ -781,14 +809,14 @@
         <v>211441</v>
       </c>
       <c r="G12">
-        <v>111744</v>
+        <v>323185</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C13">
@@ -804,14 +832,14 @@
         <v>357593</v>
       </c>
       <c r="G13">
-        <v>206626</v>
+        <v>564219</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C14">
@@ -827,14 +855,14 @@
         <v>14737</v>
       </c>
       <c r="G14">
-        <v>4494</v>
+        <v>19231</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C15">
@@ -850,14 +878,14 @@
         <v>4311</v>
       </c>
       <c r="G15">
-        <v>2793</v>
+        <v>7104</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C16">
@@ -873,14 +901,14 @@
         <v>72580</v>
       </c>
       <c r="G16">
-        <v>60737</v>
+        <v>133317</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C17">
@@ -896,14 +924,14 @@
         <v>8430</v>
       </c>
       <c r="G17">
-        <v>10274</v>
+        <v>18704</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C18">
@@ -919,14 +947,14 @@
         <v>41232</v>
       </c>
       <c r="G18">
-        <v>24038</v>
+        <v>65270</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C19">
@@ -942,1049 +970,1049 @@
         <v>224552</v>
       </c>
       <c r="G19">
-        <v>91207</v>
+        <v>315759</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" t="s">
-        <v>48</v>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C20">
-        <v>327214</v>
+        <v>12383066</v>
       </c>
       <c r="D20">
-        <v>117232</v>
+        <v>1936554</v>
       </c>
       <c r="E20">
-        <v>114521</v>
+        <v>2520723</v>
       </c>
       <c r="F20">
-        <v>34778</v>
+        <v>3632874</v>
       </c>
       <c r="G20">
-        <v>15193</v>
+        <v>6252685</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>207985</v>
+        <v>2381484</v>
       </c>
       <c r="D21">
-        <v>78945</v>
+        <v>219021</v>
       </c>
       <c r="E21">
-        <v>72140</v>
+        <v>259030</v>
       </c>
       <c r="F21">
-        <v>22878</v>
+        <v>762020</v>
       </c>
       <c r="G21">
-        <v>10402</v>
+        <v>1697526</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C22">
-        <v>113378</v>
+        <v>99790</v>
       </c>
       <c r="D22">
-        <v>43553</v>
+        <v>18300</v>
       </c>
       <c r="E22">
-        <v>38934</v>
+        <v>16966</v>
       </c>
       <c r="F22">
-        <v>13705</v>
+        <v>25546</v>
       </c>
       <c r="G22">
-        <v>6502</v>
+        <v>47913</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C23">
-        <v>62839</v>
+        <v>186325</v>
       </c>
       <c r="D23">
-        <v>23949</v>
+        <v>44838</v>
       </c>
       <c r="E23">
-        <v>22544</v>
+        <v>46591</v>
       </c>
       <c r="F23">
-        <v>5860</v>
+        <v>24150</v>
       </c>
       <c r="G23">
-        <v>2639</v>
+        <v>31739</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C24">
-        <v>25007</v>
+        <v>2883817</v>
       </c>
       <c r="D24">
-        <v>9183</v>
+        <v>429764</v>
       </c>
       <c r="E24">
-        <v>8159</v>
+        <v>455243</v>
       </c>
       <c r="F24">
-        <v>2183</v>
+        <v>754840</v>
       </c>
       <c r="G24">
-        <v>1008</v>
+        <v>1490886</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>79000</v>
+        <v>124287</v>
       </c>
       <c r="D25">
-        <v>27890</v>
+        <v>9191</v>
       </c>
       <c r="E25">
-        <v>27495</v>
+        <v>15995</v>
       </c>
       <c r="F25">
-        <v>7190</v>
+        <v>38425</v>
       </c>
       <c r="G25">
-        <v>2837</v>
+        <v>93551</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C26">
-        <v>46465</v>
+        <v>2352554</v>
       </c>
       <c r="D26">
-        <v>15202</v>
+        <v>379770</v>
       </c>
       <c r="E26">
-        <v>17051</v>
+        <v>717669</v>
       </c>
       <c r="F26">
-        <v>5632</v>
+        <v>871834</v>
       </c>
       <c r="G26">
-        <v>2461</v>
+        <v>1085496</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C27">
-        <v>23239</v>
+        <v>121819</v>
       </c>
       <c r="D27">
-        <v>5811</v>
+        <v>28890</v>
       </c>
       <c r="E27">
-        <v>8976</v>
+        <v>35787</v>
       </c>
       <c r="F27">
-        <v>2568</v>
+        <v>15923</v>
       </c>
       <c r="G27">
-        <v>776</v>
+        <v>20356</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C28">
-        <v>22778</v>
+        <v>66328</v>
       </c>
       <c r="D28">
-        <v>5766</v>
+        <v>12115</v>
       </c>
       <c r="E28">
-        <v>8848</v>
+        <v>19009</v>
       </c>
       <c r="F28">
-        <v>2487</v>
+        <v>20203</v>
       </c>
       <c r="G28">
-        <v>699</v>
+        <v>31272</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>38</v>
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C29">
-        <v>13964</v>
+        <v>912130</v>
       </c>
       <c r="D29">
-        <v>2480</v>
+        <v>171494</v>
       </c>
       <c r="E29">
-        <v>1270</v>
+        <v>263047</v>
       </c>
       <c r="F29">
-        <v>976</v>
+        <v>286563</v>
       </c>
       <c r="G29">
-        <v>410</v>
+        <v>437226</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C30">
-        <v>68005</v>
+        <v>1151607</v>
       </c>
       <c r="D30">
-        <v>10381</v>
+        <v>204255</v>
       </c>
       <c r="E30">
-        <v>7591</v>
+        <v>251378</v>
       </c>
       <c r="F30">
-        <v>11733</v>
+        <v>389693</v>
       </c>
       <c r="G30">
-        <v>4764</v>
+        <v>611798</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C31">
-        <v>9936</v>
+        <v>148185</v>
       </c>
       <c r="D31">
-        <v>1018</v>
+        <v>43174</v>
       </c>
       <c r="E31">
-        <v>2166</v>
+        <v>38789</v>
       </c>
       <c r="F31">
-        <v>4014</v>
+        <v>16454</v>
       </c>
       <c r="G31">
-        <v>2169</v>
+        <v>21444</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C32">
-        <v>63489</v>
+        <v>17178</v>
       </c>
       <c r="D32">
-        <v>8810</v>
+        <v>2489</v>
       </c>
       <c r="E32">
-        <v>9770</v>
+        <v>2854</v>
       </c>
       <c r="F32">
-        <v>14412</v>
+        <v>5873</v>
       </c>
       <c r="G32">
-        <v>12922</v>
+        <v>9650</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>42</v>
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C33">
-        <v>10403</v>
+        <v>260374</v>
       </c>
       <c r="D33">
-        <v>5109</v>
+        <v>38569</v>
       </c>
       <c r="E33">
-        <v>2442</v>
+        <v>45581</v>
       </c>
       <c r="F33">
-        <v>167</v>
+        <v>76869</v>
       </c>
       <c r="G33">
-        <v>73</v>
+        <v>141835</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C34">
-        <v>12383066</v>
+        <v>34769</v>
       </c>
       <c r="D34">
-        <v>1936554</v>
+        <v>5768</v>
       </c>
       <c r="E34">
-        <v>2520723</v>
+        <v>6171</v>
       </c>
       <c r="F34">
-        <v>3632874</v>
+        <v>9126</v>
       </c>
       <c r="G34">
-        <v>2619811</v>
+        <v>19990</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>12</v>
       </c>
-      <c r="B35" t="s">
-        <v>15</v>
+      <c r="B35" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C35">
-        <v>2381484</v>
+        <v>178461</v>
       </c>
       <c r="D35">
-        <v>219021</v>
+        <v>31319</v>
       </c>
       <c r="E35">
-        <v>259030</v>
+        <v>43643</v>
       </c>
       <c r="F35">
-        <v>762020</v>
+        <v>48507</v>
       </c>
       <c r="G35">
-        <v>935506</v>
+        <v>76384</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>12</v>
       </c>
-      <c r="B36" t="s">
-        <v>16</v>
+      <c r="B36" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C36">
-        <v>99790</v>
+        <v>1233467</v>
       </c>
       <c r="D36">
-        <v>18300</v>
+        <v>262711</v>
       </c>
       <c r="E36">
-        <v>16966</v>
+        <v>283941</v>
       </c>
       <c r="F36">
-        <v>25546</v>
+        <v>244371</v>
       </c>
       <c r="G36">
-        <v>22367</v>
+        <v>344112</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C37">
-        <v>186325</v>
+        <v>327214</v>
       </c>
       <c r="D37">
-        <v>44838</v>
+        <v>117232</v>
       </c>
       <c r="E37">
-        <v>46591</v>
+        <v>114521</v>
       </c>
       <c r="F37">
-        <v>24150</v>
+        <v>34778</v>
       </c>
       <c r="G37">
-        <v>7589</v>
+        <v>49971</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C38">
-        <v>2883817</v>
+        <v>207985</v>
       </c>
       <c r="D38">
-        <v>429764</v>
+        <v>78945</v>
       </c>
       <c r="E38">
-        <v>455243</v>
+        <v>72140</v>
       </c>
       <c r="F38">
-        <v>754840</v>
+        <v>22878</v>
       </c>
       <c r="G38">
-        <v>736046</v>
+        <v>33280</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C39">
-        <v>124287</v>
+        <v>113378</v>
       </c>
       <c r="D39">
-        <v>9191</v>
+        <v>43553</v>
       </c>
       <c r="E39">
-        <v>15995</v>
+        <v>38934</v>
       </c>
       <c r="F39">
-        <v>38425</v>
+        <v>13705</v>
       </c>
       <c r="G39">
-        <v>55126</v>
+        <v>20207</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C40">
-        <v>2352554</v>
+        <v>62839</v>
       </c>
       <c r="D40">
-        <v>379770</v>
+        <v>23949</v>
       </c>
       <c r="E40">
-        <v>717669</v>
+        <v>22544</v>
       </c>
       <c r="F40">
-        <v>871834</v>
+        <v>5860</v>
       </c>
       <c r="G40">
-        <v>213662</v>
+        <v>8499</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C41">
-        <v>121819</v>
+        <v>25007</v>
       </c>
       <c r="D41">
-        <v>28890</v>
+        <v>9183</v>
       </c>
       <c r="E41">
-        <v>35787</v>
+        <v>8159</v>
       </c>
       <c r="F41">
-        <v>15923</v>
+        <v>2183</v>
       </c>
       <c r="G41">
-        <v>4433</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C42">
-        <v>66328</v>
+        <v>79000</v>
       </c>
       <c r="D42">
-        <v>12115</v>
+        <v>27890</v>
       </c>
       <c r="E42">
-        <v>19009</v>
+        <v>27495</v>
       </c>
       <c r="F42">
-        <v>20203</v>
+        <v>7190</v>
       </c>
       <c r="G42">
-        <v>11069</v>
+        <v>10027</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C43">
-        <v>912130</v>
+        <v>46465</v>
       </c>
       <c r="D43">
-        <v>171494</v>
+        <v>15202</v>
       </c>
       <c r="E43">
-        <v>263047</v>
+        <v>17051</v>
       </c>
       <c r="F43">
-        <v>286563</v>
+        <v>5632</v>
       </c>
       <c r="G43">
-        <v>150663</v>
+        <v>8093</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C44">
-        <v>1151607</v>
+        <v>23239</v>
       </c>
       <c r="D44">
-        <v>204255</v>
+        <v>5811</v>
       </c>
       <c r="E44">
-        <v>251378</v>
+        <v>8976</v>
       </c>
       <c r="F44">
-        <v>389693</v>
+        <v>2568</v>
       </c>
       <c r="G44">
-        <v>222105</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C45">
-        <v>148185</v>
+        <v>22778</v>
       </c>
       <c r="D45">
-        <v>43174</v>
+        <v>5766</v>
       </c>
       <c r="E45">
-        <v>38789</v>
+        <v>8848</v>
       </c>
       <c r="F45">
-        <v>16454</v>
+        <v>2487</v>
       </c>
       <c r="G45">
-        <v>4990</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C46">
-        <v>17178</v>
+        <v>683036</v>
       </c>
       <c r="D46">
-        <v>2489</v>
+        <v>219306</v>
       </c>
       <c r="E46">
-        <v>2854</v>
+        <v>238985</v>
       </c>
       <c r="F46">
-        <v>5873</v>
+        <v>99377</v>
       </c>
       <c r="G46">
-        <v>3777</v>
+        <v>142935</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C47">
-        <v>260374</v>
+        <v>411577</v>
       </c>
       <c r="D47">
-        <v>38569</v>
+        <v>146067</v>
       </c>
       <c r="E47">
-        <v>45581</v>
+        <v>146131</v>
       </c>
       <c r="F47">
-        <v>76869</v>
+        <v>54617</v>
       </c>
       <c r="G47">
-        <v>64966</v>
+        <v>79759</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C48">
-        <v>34769</v>
+        <v>296878</v>
       </c>
       <c r="D48">
-        <v>5768</v>
+        <v>105365</v>
       </c>
       <c r="E48">
-        <v>6171</v>
+        <v>105279</v>
       </c>
       <c r="F48">
-        <v>9126</v>
+        <v>41888</v>
       </c>
       <c r="G48">
-        <v>10864</v>
+        <v>61604</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C49">
-        <v>178461</v>
+        <v>85269</v>
       </c>
       <c r="D49">
-        <v>31319</v>
+        <v>31241</v>
       </c>
       <c r="E49">
-        <v>43643</v>
+        <v>30991</v>
       </c>
       <c r="F49">
-        <v>48507</v>
+        <v>9337</v>
       </c>
       <c r="G49">
-        <v>27877</v>
+        <v>13063</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C50">
-        <v>1233467</v>
+        <v>28702</v>
       </c>
       <c r="D50">
-        <v>262711</v>
+        <v>10180</v>
       </c>
       <c r="E50">
-        <v>283941</v>
+        <v>9472</v>
       </c>
       <c r="F50">
-        <v>244371</v>
+        <v>2852</v>
       </c>
       <c r="G50">
-        <v>99741</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C51">
-        <v>683036</v>
+        <v>103294</v>
       </c>
       <c r="D51">
-        <v>219306</v>
+        <v>34115</v>
       </c>
       <c r="E51">
-        <v>238985</v>
+        <v>36582</v>
       </c>
       <c r="F51">
-        <v>99377</v>
+        <v>11709</v>
       </c>
       <c r="G51">
-        <v>43558</v>
+        <v>16717</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>14</v>
       </c>
-      <c r="B52" t="s">
-        <v>30</v>
+      <c r="B52" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C52">
-        <v>411577</v>
+        <v>67519</v>
       </c>
       <c r="D52">
-        <v>146067</v>
+        <v>20472</v>
       </c>
       <c r="E52">
-        <v>146131</v>
+        <v>25050</v>
       </c>
       <c r="F52">
-        <v>54617</v>
+        <v>9724</v>
       </c>
       <c r="G52">
-        <v>25142</v>
+        <v>14124</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>14</v>
       </c>
-      <c r="B53" t="s">
-        <v>31</v>
+      <c r="B53" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C53">
-        <v>296878</v>
+        <v>27398</v>
       </c>
       <c r="D53">
-        <v>105365</v>
+        <v>7011</v>
       </c>
       <c r="E53">
-        <v>105279</v>
+        <v>10210</v>
       </c>
       <c r="F53">
-        <v>41888</v>
+        <v>3261</v>
       </c>
       <c r="G53">
-        <v>19716</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>14</v>
       </c>
-      <c r="B54" t="s">
-        <v>32</v>
+      <c r="B54" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C54">
-        <v>85269</v>
+        <v>26738</v>
       </c>
       <c r="D54">
-        <v>31241</v>
+        <v>6941</v>
       </c>
       <c r="E54">
-        <v>30991</v>
+        <v>10055</v>
       </c>
       <c r="F54">
-        <v>9337</v>
+        <v>3109</v>
       </c>
       <c r="G54">
-        <v>3726</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C55">
-        <v>28702</v>
+        <v>13964</v>
       </c>
       <c r="D55">
-        <v>10180</v>
+        <v>2480</v>
       </c>
       <c r="E55">
-        <v>9472</v>
+        <v>1270</v>
       </c>
       <c r="F55">
-        <v>2852</v>
+        <v>976</v>
       </c>
       <c r="G55">
-        <v>1242</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C56">
-        <v>103294</v>
+        <v>68005</v>
       </c>
       <c r="D56">
-        <v>34115</v>
+        <v>10381</v>
       </c>
       <c r="E56">
-        <v>36582</v>
+        <v>7591</v>
       </c>
       <c r="F56">
-        <v>11709</v>
+        <v>11733</v>
       </c>
       <c r="G56">
-        <v>5008</v>
+        <v>16497</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C57">
-        <v>67519</v>
+        <v>9936</v>
       </c>
       <c r="D57">
-        <v>20472</v>
+        <v>1018</v>
       </c>
       <c r="E57">
-        <v>25050</v>
+        <v>2166</v>
       </c>
       <c r="F57">
-        <v>9724</v>
+        <v>4014</v>
       </c>
       <c r="G57">
-        <v>4400</v>
+        <v>6183</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C58">
-        <v>27398</v>
+        <v>63489</v>
       </c>
       <c r="D58">
-        <v>7011</v>
+        <v>8810</v>
       </c>
       <c r="E58">
-        <v>10210</v>
+        <v>9770</v>
       </c>
       <c r="F58">
-        <v>3261</v>
+        <v>14412</v>
       </c>
       <c r="G58">
-        <v>970</v>
+        <v>27334</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C59">
-        <v>26738</v>
+        <v>16142</v>
       </c>
       <c r="D59">
-        <v>6941</v>
+        <v>2782</v>
       </c>
       <c r="E59">
-        <v>10055</v>
+        <v>1471</v>
       </c>
       <c r="F59">
-        <v>3109</v>
+        <v>1178</v>
       </c>
       <c r="G59">
-        <v>833</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>12</v>
       </c>
-      <c r="B60" t="s">
-        <v>38</v>
+      <c r="B60" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C60">
-        <v>16142</v>
+        <v>73834</v>
       </c>
       <c r="D60">
-        <v>2782</v>
+        <v>11032</v>
       </c>
       <c r="E60">
-        <v>1471</v>
+        <v>8438</v>
       </c>
       <c r="F60">
-        <v>1178</v>
+        <v>13269</v>
       </c>
       <c r="G60">
-        <v>491</v>
+        <v>18973</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>12</v>
       </c>
-      <c r="B61" t="s">
-        <v>39</v>
+      <c r="B61" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C61">
-        <v>73834</v>
+        <v>12232</v>
       </c>
       <c r="D61">
-        <v>11032</v>
+        <v>1301</v>
       </c>
       <c r="E61">
-        <v>8438</v>
+        <v>2817</v>
       </c>
       <c r="F61">
-        <v>13269</v>
+        <v>4645</v>
       </c>
       <c r="G61">
-        <v>5704</v>
+        <v>7369</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>12</v>
       </c>
-      <c r="B62" t="s">
-        <v>40</v>
+      <c r="B62" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C62">
-        <v>12232</v>
+        <v>67041</v>
       </c>
       <c r="D62">
-        <v>1301</v>
+        <v>9516</v>
       </c>
       <c r="E62">
-        <v>2817</v>
+        <v>10387</v>
       </c>
       <c r="F62">
-        <v>4645</v>
+        <v>15030</v>
       </c>
       <c r="G62">
-        <v>2724</v>
+        <v>28410</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>12</v>
       </c>
-      <c r="B63" t="s">
-        <v>41</v>
+      <c r="B63" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C63">
-        <v>67041</v>
+        <v>7419</v>
       </c>
       <c r="D63">
-        <v>9516</v>
+        <v>1265</v>
       </c>
       <c r="E63">
-        <v>10387</v>
+        <v>2364</v>
       </c>
       <c r="F63">
-        <v>15030</v>
+        <v>2256</v>
       </c>
       <c r="G63">
-        <v>13380</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C64">
-        <v>7419</v>
+        <v>10403</v>
       </c>
       <c r="D64">
-        <v>1265</v>
+        <v>5109</v>
       </c>
       <c r="E64">
-        <v>2364</v>
+        <v>2442</v>
       </c>
       <c r="F64">
-        <v>2256</v>
+        <v>167</v>
       </c>
       <c r="G64">
-        <v>1254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>14</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C65">
@@ -2000,14 +2028,14 @@
         <v>350</v>
       </c>
       <c r="G65">
-        <v>80</v>
+        <v>430</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>14</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C66">
@@ -2023,11 +2051,12 @@
         <v>673</v>
       </c>
       <c r="G66">
-        <v>162</v>
+        <v>835</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2554,7 +2583,7 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37">
         <v>500510</v>
@@ -2680,7 +2709,7 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>1037116</v>

--- a/national_dta.xlsx
+++ b/national_dta.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="3" r:id="rId1"/>
@@ -526,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -2064,14 +2064,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2082,10 +2083,10 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2096,10 +2097,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>282005382</v>
+        <v>316515008</v>
       </c>
       <c r="D2">
-        <v>316515021</v>
+        <v>222464704</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2110,10 +2111,10 @@
         <v>45</v>
       </c>
       <c r="C3">
-        <v>22958219</v>
+        <v>16235305</v>
       </c>
       <c r="D3">
-        <v>16235305</v>
+        <v>8769653</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2124,10 +2125,10 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>4716473</v>
+        <v>3303512</v>
       </c>
       <c r="D4">
-        <v>3303512</v>
+        <v>1434568</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2138,10 +2139,10 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>210351</v>
+        <v>153234</v>
       </c>
       <c r="D5">
-        <v>153234</v>
+        <v>64614</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2152,10 +2153,10 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <v>350950</v>
+        <v>263396</v>
       </c>
       <c r="D6">
-        <v>263396</v>
+        <v>158556</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2166,10 +2167,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5414353</v>
+        <v>3852099</v>
       </c>
       <c r="D7">
-        <v>3693977</v>
+        <v>2087394</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2180,10 +2181,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>229618</v>
+        <v>148275</v>
       </c>
       <c r="D8">
-        <v>148275</v>
+        <v>94681</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2194,10 +2195,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>3931110</v>
+        <v>2717844</v>
       </c>
       <c r="D9">
-        <v>2717844</v>
+        <v>1713835</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2208,10 +2209,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>262119</v>
+        <v>267009</v>
       </c>
       <c r="D10">
-        <v>267009</v>
+        <v>140899</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2222,10 +2223,10 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>108823</v>
+        <v>71451</v>
       </c>
       <c r="D11">
-        <v>71451</v>
+        <v>24703</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2236,10 +2237,10 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>993935</v>
+        <v>779637</v>
       </c>
       <c r="D12">
-        <v>779637</v>
+        <v>500155</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2250,10 +2251,10 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>2191253</v>
+        <v>1460214</v>
       </c>
       <c r="D13">
-        <v>1460214</v>
+        <v>810630</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2264,10 +2265,10 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>278479</v>
+        <v>207999</v>
       </c>
       <c r="D14">
-        <v>207999</v>
+        <v>124308</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2278,10 +2279,10 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>31391</v>
+        <v>18803</v>
       </c>
       <c r="D15">
-        <v>18803</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2292,10 +2293,10 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>546088</v>
+        <v>414880</v>
       </c>
       <c r="D16">
-        <v>414880</v>
+        <v>204726</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2306,10 +2307,10 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>69880</v>
+        <v>46036</v>
       </c>
       <c r="D17">
-        <v>46036</v>
+        <v>20164</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2320,10 +2321,10 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>298681</v>
+        <v>188673</v>
       </c>
       <c r="D18">
-        <v>188673</v>
+        <v>104884</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2334,10 +2335,10 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>2430258</v>
+        <v>1710547</v>
       </c>
       <c r="D19">
-        <v>1710547</v>
+        <v>1065739</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2348,10 +2349,10 @@
         <v>46</v>
       </c>
       <c r="C20">
-        <v>24908927</v>
+        <v>19167716</v>
       </c>
       <c r="D20">
-        <v>19167716</v>
+        <v>10138697</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2362,10 +2363,10 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>4963074</v>
+        <v>3590279</v>
       </c>
       <c r="D21">
-        <v>3590279</v>
+        <v>1558594</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2376,10 +2377,10 @@
         <v>16</v>
       </c>
       <c r="C22">
-        <v>223625</v>
+        <v>164821</v>
       </c>
       <c r="D22">
-        <v>164821</v>
+        <v>69825</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2390,10 +2391,10 @@
         <v>17</v>
       </c>
       <c r="C23">
-        <v>382247</v>
+        <v>316640</v>
       </c>
       <c r="D23">
-        <v>316640</v>
+        <v>176113</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2404,10 +2405,10 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>5925834</v>
+        <v>4597905</v>
       </c>
       <c r="D24">
-        <v>4428363</v>
+        <v>2459584</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2418,10 +2419,10 @@
         <v>18</v>
       </c>
       <c r="C25">
-        <v>256911</v>
+        <v>181029</v>
       </c>
       <c r="D25">
-        <v>181029</v>
+        <v>109715</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2432,10 +2433,10 @@
         <v>19</v>
       </c>
       <c r="C26">
-        <v>4504514</v>
+        <v>3707082</v>
       </c>
       <c r="D26">
-        <v>3707082</v>
+        <v>2181775</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2446,10 +2447,10 @@
         <v>20</v>
       </c>
       <c r="C27">
-        <v>269245</v>
+        <v>280410</v>
       </c>
       <c r="D27">
-        <v>280410</v>
+        <v>144882</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2460,10 +2461,10 @@
         <v>21</v>
       </c>
       <c r="C28">
-        <v>140602</v>
+        <v>108477</v>
       </c>
       <c r="D28">
-        <v>108477</v>
+        <v>41617</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2474,10 +2475,10 @@
         <v>22</v>
       </c>
       <c r="C29">
-        <v>1361511</v>
+        <v>1388163</v>
       </c>
       <c r="D29">
-        <v>1388163</v>
+        <v>831898</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2488,10 +2489,10 @@
         <v>23</v>
       </c>
       <c r="C30">
-        <v>2355511</v>
+        <v>1792437</v>
       </c>
       <c r="D30">
-        <v>1792437</v>
+        <v>953489</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2502,10 +2503,10 @@
         <v>24</v>
       </c>
       <c r="C31">
-        <v>299409</v>
+        <v>256416</v>
       </c>
       <c r="D31">
-        <v>256416</v>
+        <v>137527</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2516,10 +2517,10 @@
         <v>25</v>
       </c>
       <c r="C32">
-        <v>42197</v>
+        <v>28818</v>
       </c>
       <c r="D32">
-        <v>28818</v>
+        <v>9973</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2530,10 +2531,10 @@
         <v>26</v>
       </c>
       <c r="C33">
-        <v>578493</v>
+        <v>455005</v>
       </c>
       <c r="D33">
-        <v>455005</v>
+        <v>222252</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2544,10 +2545,10 @@
         <v>27</v>
       </c>
       <c r="C34">
-        <v>74505</v>
+        <v>52267</v>
       </c>
       <c r="D34">
-        <v>52267</v>
+        <v>22161</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2558,10 +2559,10 @@
         <v>28</v>
       </c>
       <c r="C35">
-        <v>348110</v>
+        <v>278281</v>
       </c>
       <c r="D35">
-        <v>278281</v>
+        <v>142232</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2572,10 +2573,10 @@
         <v>29</v>
       </c>
       <c r="C36">
-        <v>2583533</v>
+        <v>1928363</v>
       </c>
       <c r="D36">
-        <v>1928363</v>
+        <v>1163357</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2586,10 +2587,10 @@
         <v>47</v>
       </c>
       <c r="C37">
-        <v>500510</v>
+        <v>546255</v>
       </c>
       <c r="D37">
-        <v>546255</v>
+        <v>332580</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2600,10 +2601,10 @@
         <v>30</v>
       </c>
       <c r="C38">
-        <v>288500</v>
+        <v>1262434</v>
       </c>
       <c r="D38">
-        <v>344487</v>
+        <v>748301</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2613,12 +2614,6 @@
       <c r="B39" t="s">
         <v>31</v>
       </c>
-      <c r="C39">
-        <v>138775</v>
-      </c>
-      <c r="D39">
-        <v>174460</v>
-      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -2627,12 +2622,6 @@
       <c r="B40" t="s">
         <v>32</v>
       </c>
-      <c r="C40">
-        <v>90498</v>
-      </c>
-      <c r="D40">
-        <v>109455</v>
-      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -2641,12 +2630,6 @@
       <c r="B41" t="s">
         <v>33</v>
       </c>
-      <c r="C41">
-        <v>48207</v>
-      </c>
-      <c r="D41">
-        <v>45453</v>
-      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -2655,12 +2638,6 @@
       <c r="B42" t="s">
         <v>34</v>
       </c>
-      <c r="C42">
-        <v>134080</v>
-      </c>
-      <c r="D42">
-        <v>138360</v>
-      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -2669,12 +2646,6 @@
       <c r="B43" t="s">
         <v>35</v>
       </c>
-      <c r="C43">
-        <v>60527</v>
-      </c>
-      <c r="D43">
-        <v>73088</v>
-      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -2683,12 +2654,6 @@
       <c r="B44" t="s">
         <v>36</v>
       </c>
-      <c r="C44">
-        <v>49263</v>
-      </c>
-      <c r="D44">
-        <v>34239</v>
-      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -2697,12 +2662,6 @@
       <c r="B45" t="s">
         <v>37</v>
       </c>
-      <c r="C45">
-        <v>48239</v>
-      </c>
-      <c r="D45">
-        <v>33468</v>
-      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -2711,12 +2670,6 @@
       <c r="B46" t="s">
         <v>48</v>
       </c>
-      <c r="C46">
-        <v>1037116</v>
-      </c>
-      <c r="D46">
-        <v>1262434</v>
-      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -2725,12 +2678,6 @@
       <c r="B47" t="s">
         <v>30</v>
       </c>
-      <c r="C47">
-        <v>554348</v>
-      </c>
-      <c r="D47">
-        <v>783326</v>
-      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -2739,12 +2686,6 @@
       <c r="B48" t="s">
         <v>31</v>
       </c>
-      <c r="C48">
-        <v>372333</v>
-      </c>
-      <c r="D48">
-        <v>549858</v>
-      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -2753,12 +2694,6 @@
       <c r="B49" t="s">
         <v>32</v>
       </c>
-      <c r="C49">
-        <v>125546</v>
-      </c>
-      <c r="D49">
-        <v>182968</v>
-      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -2767,12 +2702,6 @@
       <c r="B50" t="s">
         <v>33</v>
       </c>
-      <c r="C50">
-        <v>55202</v>
-      </c>
-      <c r="D50">
-        <v>62458</v>
-      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -2781,12 +2710,6 @@
       <c r="B51" t="s">
         <v>34</v>
       </c>
-      <c r="C51">
-        <v>171514</v>
-      </c>
-      <c r="D51">
-        <v>207128</v>
-      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -2795,12 +2718,6 @@
       <c r="B52" t="s">
         <v>35</v>
       </c>
-      <c r="C52">
-        <v>91205</v>
-      </c>
-      <c r="D52">
-        <v>130476</v>
-      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -2809,12 +2726,6 @@
       <c r="B53" t="s">
         <v>36</v>
       </c>
-      <c r="C53">
-        <v>58071</v>
-      </c>
-      <c r="D53">
-        <v>43211</v>
-      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -2823,12 +2734,6 @@
       <c r="B54" t="s">
         <v>37</v>
       </c>
-      <c r="C54">
-        <v>56692</v>
-      </c>
-      <c r="D54">
-        <v>42110</v>
-      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -2838,10 +2743,10 @@
         <v>38</v>
       </c>
       <c r="C55">
-        <v>33000</v>
+        <v>21441</v>
       </c>
       <c r="D55">
-        <v>21441</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2852,10 +2757,10 @@
         <v>39</v>
       </c>
       <c r="C56">
-        <v>162272</v>
+        <v>126590</v>
       </c>
       <c r="D56">
-        <v>126590</v>
+        <v>24852</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2866,10 +2771,10 @@
         <v>40</v>
       </c>
       <c r="C57">
-        <v>22621</v>
+        <v>15919</v>
       </c>
       <c r="D57">
-        <v>15919</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2880,10 +2785,10 @@
         <v>41</v>
       </c>
       <c r="C58">
-        <v>151905</v>
+        <v>103526</v>
       </c>
       <c r="D58">
-        <v>103526</v>
+        <v>17630</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2894,10 +2799,10 @@
         <v>38</v>
       </c>
       <c r="C59">
-        <v>37939</v>
+        <v>24875</v>
       </c>
       <c r="D59">
-        <v>24875</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2908,10 +2813,10 @@
         <v>39</v>
       </c>
       <c r="C60">
-        <v>174900</v>
+        <v>138426</v>
       </c>
       <c r="D60">
-        <v>138426</v>
+        <v>29127</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2922,10 +2827,10 @@
         <v>40</v>
       </c>
       <c r="C61">
-        <v>26041</v>
+        <v>20546</v>
       </c>
       <c r="D61">
-        <v>20546</v>
+        <v>5519</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2936,10 +2841,10 @@
         <v>41</v>
       </c>
       <c r="C62">
-        <v>160068</v>
+        <v>111021</v>
       </c>
       <c r="D62">
-        <v>111021</v>
+        <v>18931</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2950,10 +2855,10 @@
         <v>43</v>
       </c>
       <c r="C63">
-        <v>9068</v>
+        <v>11627</v>
       </c>
       <c r="D63">
-        <v>11627</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2963,39 +2868,21 @@
       <c r="B64" t="s">
         <v>42</v>
       </c>
-      <c r="C64">
-        <v>23488</v>
-      </c>
-      <c r="D64">
-        <v>23444</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>14</v>
       </c>
       <c r="B65" t="s">
         <v>42</v>
       </c>
-      <c r="C65">
-        <v>25502</v>
-      </c>
-      <c r="D65">
-        <v>26856</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>14</v>
       </c>
       <c r="B66" t="s">
         <v>44</v>
-      </c>
-      <c r="C66">
-        <v>9842</v>
-      </c>
-      <c r="D66">
-        <v>8957</v>
       </c>
     </row>
   </sheetData>

--- a/national_dta.xlsx
+++ b/national_dta.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="24940" yWindow="440" windowWidth="24940" windowHeight="28360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="3" r:id="rId1"/>
@@ -2064,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2601,10 +2601,10 @@
         <v>30</v>
       </c>
       <c r="C38">
-        <v>1262434</v>
+        <v>344487</v>
       </c>
       <c r="D38">
-        <v>748301</v>
+        <v>232958</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2614,6 +2614,12 @@
       <c r="B39" t="s">
         <v>31</v>
       </c>
+      <c r="C39">
+        <v>174460</v>
+      </c>
+      <c r="D39">
+        <v>132370</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -2622,6 +2628,12 @@
       <c r="B40" t="s">
         <v>32</v>
       </c>
+      <c r="C40">
+        <v>109455</v>
+      </c>
+      <c r="D40">
+        <v>72519</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -2630,6 +2642,12 @@
       <c r="B41" t="s">
         <v>33</v>
       </c>
+      <c r="C41">
+        <v>45453</v>
+      </c>
+      <c r="D41">
+        <v>20524</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -2638,6 +2656,12 @@
       <c r="B42" t="s">
         <v>34</v>
       </c>
+      <c r="C42">
+        <v>138360</v>
+      </c>
+      <c r="D42">
+        <v>64647</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -2646,6 +2670,12 @@
       <c r="B43" t="s">
         <v>35</v>
       </c>
+      <c r="C43">
+        <v>73088</v>
+      </c>
+      <c r="D43">
+        <v>54298</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -2654,6 +2684,12 @@
       <c r="B44" t="s">
         <v>36</v>
       </c>
+      <c r="C44">
+        <v>34239</v>
+      </c>
+      <c r="D44">
+        <v>17449</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -2662,6 +2698,12 @@
       <c r="B45" t="s">
         <v>37</v>
       </c>
+      <c r="C45">
+        <v>33468</v>
+      </c>
+      <c r="D45">
+        <v>17304</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -2670,6 +2712,12 @@
       <c r="B46" t="s">
         <v>48</v>
       </c>
+      <c r="C46">
+        <v>1262434</v>
+      </c>
+      <c r="D46">
+        <v>748301</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -2678,6 +2726,12 @@
       <c r="B47" t="s">
         <v>30</v>
       </c>
+      <c r="C47">
+        <v>783326</v>
+      </c>
+      <c r="D47">
+        <v>487743</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -2686,6 +2740,12 @@
       <c r="B48" t="s">
         <v>31</v>
       </c>
+      <c r="C48">
+        <v>549858</v>
+      </c>
+      <c r="D48">
+        <v>360525</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -2694,6 +2754,12 @@
       <c r="B49" t="s">
         <v>32</v>
       </c>
+      <c r="C49">
+        <v>182968</v>
+      </c>
+      <c r="D49">
+        <v>104560</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -2702,6 +2768,12 @@
       <c r="B50" t="s">
         <v>33</v>
       </c>
+      <c r="C50">
+        <v>62458</v>
+      </c>
+      <c r="D50">
+        <v>26133</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -2710,6 +2782,12 @@
       <c r="B51" t="s">
         <v>34</v>
       </c>
+      <c r="C51">
+        <v>207128</v>
+      </c>
+      <c r="D51">
+        <v>95823</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -2718,6 +2796,12 @@
       <c r="B52" t="s">
         <v>35</v>
       </c>
+      <c r="C52">
+        <v>130476</v>
+      </c>
+      <c r="D52">
+        <v>82128</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -2726,6 +2810,12 @@
       <c r="B53" t="s">
         <v>36</v>
       </c>
+      <c r="C53">
+        <v>43211</v>
+      </c>
+      <c r="D53">
+        <v>21654</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -2734,6 +2824,12 @@
       <c r="B54" t="s">
         <v>37</v>
       </c>
+      <c r="C54">
+        <v>42110</v>
+      </c>
+      <c r="D54">
+        <v>21305</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -2868,21 +2964,39 @@
       <c r="B64" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>23444</v>
+      </c>
+      <c r="D64">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>14</v>
       </c>
       <c r="B65" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>26856</v>
+      </c>
+      <c r="D65">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>14</v>
       </c>
       <c r="B66" t="s">
         <v>44</v>
+      </c>
+      <c r="C66">
+        <v>8957</v>
+      </c>
+      <c r="D66">
+        <v>3664</v>
       </c>
     </row>
   </sheetData>

--- a/national_dta.xlsx
+++ b/national_dta.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24940" yWindow="440" windowWidth="24940" windowHeight="28360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-32020" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="3" r:id="rId1"/>
-    <sheet name="CVAP" sheetId="2" r:id="rId2"/>
+    <sheet name="education2" sheetId="5" r:id="rId2"/>
+    <sheet name="CVAP" sheetId="2" r:id="rId3"/>
+    <sheet name="cvap2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="136">
   <si>
     <t>total_pop</t>
   </si>
@@ -178,6 +180,264 @@
   </si>
   <si>
     <t xml:space="preserve">Chinese (except Taiwanese) </t>
+  </si>
+  <si>
+    <t>Major racial groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian Indian alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladeshi alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodian alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwanese alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filipino alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hmong alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesian alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japanese alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korean alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laotian alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysian alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistani alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lankan alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thai alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnamese alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian alone or in combination with one or more other races  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian Indian alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladeshi alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodian alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwanese alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filipino alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hmong alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesian alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japanese alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korean alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laotian alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysian alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistani alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lankan alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thai alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnamese alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native Hawaiian and Other Pacific Islander alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native Hawaiian and Other Pacific Islander alone or in combination with one or more other races  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutanese alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burmese alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolian alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepalese alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutanese alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burmese alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolian alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepalese alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okinawan alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polynesian alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native Hawaiian alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoan alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tongan alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronesian alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guamanian or Chamorro alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melanesian alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fijian alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polynesian alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native Hawaiian alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoan alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tongan alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronesian alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guamanian or Chamorro alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melanesian alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fijian alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshallese alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshallese alone or in any combination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palauan alone or in any combination </t>
+  </si>
+  <si>
+    <t>pct_share_cvap</t>
+  </si>
+  <si>
+    <t>pct_share_totalpop</t>
+  </si>
+  <si>
+    <t>Chinese alone</t>
+  </si>
+  <si>
+    <t>geoid</t>
+  </si>
+  <si>
+    <t>geodisplaylabel</t>
+  </si>
+  <si>
+    <t>0100000US</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>est_hsless</t>
+  </si>
+  <si>
+    <t>moe_hsless</t>
+  </si>
+  <si>
+    <t>check_hsless</t>
+  </si>
+  <si>
+    <t>est_hsged</t>
+  </si>
+  <si>
+    <t>moe_hsged</t>
+  </si>
+  <si>
+    <t>check_hsged</t>
+  </si>
+  <si>
+    <t>est_somecollegeaa</t>
+  </si>
+  <si>
+    <t>moe_somecollegeaa</t>
+  </si>
+  <si>
+    <t>check_somecollegeaa</t>
+  </si>
+  <si>
+    <t>est_bahigher</t>
+  </si>
+  <si>
+    <t>moe_bahigher</t>
+  </si>
+  <si>
+    <t>check_bahigher</t>
+  </si>
+  <si>
+    <t>est_totpop</t>
+  </si>
+  <si>
+    <t>moe_totpop</t>
+  </si>
+  <si>
+    <t>pop_id</t>
   </si>
 </sst>
 </file>
@@ -527,7 +787,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="C1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2062,10 +2322,3527 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>211462528</v>
+      </c>
+      <c r="E2">
+        <v>16135</v>
+      </c>
+      <c r="F2">
+        <v>28229094</v>
+      </c>
+      <c r="G2">
+        <v>253257</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>58722528</v>
+      </c>
+      <c r="J2">
+        <v>179388</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>61558628</v>
+      </c>
+      <c r="M2">
+        <v>255500</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>62952272</v>
+      </c>
+      <c r="P2">
+        <v>301972</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>11220496</v>
+      </c>
+      <c r="E3">
+        <v>9370</v>
+      </c>
+      <c r="F3">
+        <v>1573206</v>
+      </c>
+      <c r="G3">
+        <v>37429</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1716257</v>
+      </c>
+      <c r="J3">
+        <v>19629</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>2160511</v>
+      </c>
+      <c r="M3">
+        <v>26315</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>5770522</v>
+      </c>
+      <c r="P3">
+        <v>44876</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>2251829</v>
+      </c>
+      <c r="E4">
+        <v>11929</v>
+      </c>
+      <c r="F4">
+        <v>186073</v>
+      </c>
+      <c r="G4">
+        <v>11956</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>197964</v>
+      </c>
+      <c r="J4">
+        <v>5929</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>230685</v>
+      </c>
+      <c r="M4">
+        <v>8654</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1637107</v>
+      </c>
+      <c r="P4">
+        <v>22841</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>93875</v>
+      </c>
+      <c r="E5">
+        <v>3451</v>
+      </c>
+      <c r="F5">
+        <v>15410</v>
+      </c>
+      <c r="G5">
+        <v>3259</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>17304</v>
+      </c>
+      <c r="J5">
+        <v>1474</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>15916</v>
+      </c>
+      <c r="M5">
+        <v>2343</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>45245</v>
+      </c>
+      <c r="P5">
+        <v>4213</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>171518</v>
+      </c>
+      <c r="E6">
+        <v>5433</v>
+      </c>
+      <c r="F6">
+        <v>58429</v>
+      </c>
+      <c r="G6">
+        <v>6524</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>42415</v>
+      </c>
+      <c r="J6">
+        <v>2605</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>42434</v>
+      </c>
+      <c r="M6">
+        <v>3650</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>28240</v>
+      </c>
+      <c r="P6">
+        <v>3041</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>2575144</v>
+      </c>
+      <c r="E7">
+        <v>12623</v>
+      </c>
+      <c r="F7">
+        <v>478365</v>
+      </c>
+      <c r="G7">
+        <v>18691</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>375971</v>
+      </c>
+      <c r="J7">
+        <v>7088</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>369957</v>
+      </c>
+      <c r="M7">
+        <v>10279</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1350851</v>
+      </c>
+      <c r="P7">
+        <v>21754</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>110533</v>
+      </c>
+      <c r="E8">
+        <v>3150</v>
+      </c>
+      <c r="F8">
+        <v>5070</v>
+      </c>
+      <c r="G8">
+        <v>1737</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>8018</v>
+      </c>
+      <c r="J8">
+        <v>853</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>13418</v>
+      </c>
+      <c r="M8">
+        <v>1799</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>84027</v>
+      </c>
+      <c r="P8">
+        <v>5503</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>1995300</v>
+      </c>
+      <c r="E9">
+        <v>13048</v>
+      </c>
+      <c r="F9">
+        <v>147351</v>
+      </c>
+      <c r="G9">
+        <v>10669</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>301191</v>
+      </c>
+      <c r="J9">
+        <v>5401</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>587477</v>
+      </c>
+      <c r="M9">
+        <v>13296</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>959281</v>
+      </c>
+      <c r="P9">
+        <v>16331</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>118806</v>
+      </c>
+      <c r="E10">
+        <v>3096</v>
+      </c>
+      <c r="F10">
+        <v>35913</v>
+      </c>
+      <c r="G10">
+        <v>3833</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>27984</v>
+      </c>
+      <c r="J10">
+        <v>1596</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>35014</v>
+      </c>
+      <c r="M10">
+        <v>2922</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>19895</v>
+      </c>
+      <c r="P10">
+        <v>2126</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>49133</v>
+      </c>
+      <c r="E11">
+        <v>1920</v>
+      </c>
+      <c r="F11">
+        <v>3264</v>
+      </c>
+      <c r="G11">
+        <v>1558</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>9328</v>
+      </c>
+      <c r="J11">
+        <v>1011</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>12978</v>
+      </c>
+      <c r="M11">
+        <v>1904</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>23563</v>
+      </c>
+      <c r="P11">
+        <v>2680</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>653893</v>
+      </c>
+      <c r="E12">
+        <v>7972</v>
+      </c>
+      <c r="F12">
+        <v>30944</v>
+      </c>
+      <c r="G12">
+        <v>4489</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>124921</v>
+      </c>
+      <c r="J12">
+        <v>3761</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>174843</v>
+      </c>
+      <c r="M12">
+        <v>6631</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>323185</v>
+      </c>
+      <c r="P12">
+        <v>9616</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>1042748</v>
+      </c>
+      <c r="E13">
+        <v>9214</v>
+      </c>
+      <c r="F13">
+        <v>79314</v>
+      </c>
+      <c r="G13">
+        <v>7378</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>187183</v>
+      </c>
+      <c r="J13">
+        <v>4539</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>212032</v>
+      </c>
+      <c r="M13">
+        <v>8093</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>564219</v>
+      </c>
+      <c r="P13">
+        <v>14351</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>138426</v>
+      </c>
+      <c r="E14">
+        <v>3401</v>
+      </c>
+      <c r="F14">
+        <v>42432</v>
+      </c>
+      <c r="G14">
+        <v>5319</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>40830</v>
+      </c>
+      <c r="J14">
+        <v>2153</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>35933</v>
+      </c>
+      <c r="M14">
+        <v>3487</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>19231</v>
+      </c>
+      <c r="P14">
+        <v>2397</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>12302</v>
+      </c>
+      <c r="E15">
+        <v>1015</v>
+      </c>
+      <c r="F15">
+        <v>1590</v>
+      </c>
+      <c r="G15">
+        <v>1213</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1813</v>
+      </c>
+      <c r="J15">
+        <v>450</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1795</v>
+      </c>
+      <c r="M15">
+        <v>685</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>7104</v>
+      </c>
+      <c r="P15">
+        <v>1515</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>244845</v>
+      </c>
+      <c r="E16">
+        <v>6442</v>
+      </c>
+      <c r="F16">
+        <v>32488</v>
+      </c>
+      <c r="G16">
+        <v>4842</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>36923</v>
+      </c>
+      <c r="J16">
+        <v>2301</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>42117</v>
+      </c>
+      <c r="M16">
+        <v>3767</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>133317</v>
+      </c>
+      <c r="P16">
+        <v>7331</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>32654</v>
+      </c>
+      <c r="E17">
+        <v>1903</v>
+      </c>
+      <c r="F17">
+        <v>2675</v>
+      </c>
+      <c r="G17">
+        <v>1153</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>5448</v>
+      </c>
+      <c r="J17">
+        <v>814</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>5827</v>
+      </c>
+      <c r="M17">
+        <v>1236</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>18704</v>
+      </c>
+      <c r="P17">
+        <v>2598</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>148187</v>
+      </c>
+      <c r="E18">
+        <v>3523</v>
+      </c>
+      <c r="F18">
+        <v>24692</v>
+      </c>
+      <c r="G18">
+        <v>4196</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>25508</v>
+      </c>
+      <c r="J18">
+        <v>1682</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>32717</v>
+      </c>
+      <c r="M18">
+        <v>3263</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>65270</v>
+      </c>
+      <c r="P18">
+        <v>4598</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>1155779</v>
+      </c>
+      <c r="E19">
+        <v>12000</v>
+      </c>
+      <c r="F19">
+        <v>324937</v>
+      </c>
+      <c r="G19">
+        <v>15952</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>251059</v>
+      </c>
+      <c r="J19">
+        <v>6095</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>264024</v>
+      </c>
+      <c r="M19">
+        <v>9057</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>315759</v>
+      </c>
+      <c r="P19">
+        <v>11018</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>12383066</v>
+      </c>
+      <c r="E20">
+        <v>9575</v>
+      </c>
+      <c r="F20">
+        <v>1673104</v>
+      </c>
+      <c r="G20">
+        <v>38728</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1936554</v>
+      </c>
+      <c r="J20">
+        <v>19213</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>2520723</v>
+      </c>
+      <c r="M20">
+        <v>28008</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>6252685</v>
+      </c>
+      <c r="P20">
+        <v>47932</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>2381484</v>
+      </c>
+      <c r="E21">
+        <v>12341</v>
+      </c>
+      <c r="F21">
+        <v>205907</v>
+      </c>
+      <c r="G21">
+        <v>12498</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>219021</v>
+      </c>
+      <c r="J21">
+        <v>6015</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>259030</v>
+      </c>
+      <c r="M21">
+        <v>8935</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1697526</v>
+      </c>
+      <c r="P21">
+        <v>23388</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22">
+        <v>33</v>
+      </c>
+      <c r="D22">
+        <v>99790</v>
+      </c>
+      <c r="E22">
+        <v>3494</v>
+      </c>
+      <c r="F22">
+        <v>16611</v>
+      </c>
+      <c r="G22">
+        <v>3311</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>18300</v>
+      </c>
+      <c r="J22">
+        <v>1501</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>16966</v>
+      </c>
+      <c r="M22">
+        <v>2399</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>47913</v>
+      </c>
+      <c r="P22">
+        <v>4312</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23">
+        <v>34</v>
+      </c>
+      <c r="D23">
+        <v>186325</v>
+      </c>
+      <c r="E23">
+        <v>5272</v>
+      </c>
+      <c r="F23">
+        <v>63157</v>
+      </c>
+      <c r="G23">
+        <v>6668</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>44838</v>
+      </c>
+      <c r="J23">
+        <v>2627</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>46591</v>
+      </c>
+      <c r="M23">
+        <v>3774</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>31739</v>
+      </c>
+      <c r="P23">
+        <v>3219</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>2883817</v>
+      </c>
+      <c r="E24">
+        <v>14404</v>
+      </c>
+      <c r="F24">
+        <v>507924</v>
+      </c>
+      <c r="G24">
+        <v>19574</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>429764</v>
+      </c>
+      <c r="J24">
+        <v>7445</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>455243</v>
+      </c>
+      <c r="M24">
+        <v>11317</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1490886</v>
+      </c>
+      <c r="P24">
+        <v>23698</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25">
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <v>124287</v>
+      </c>
+      <c r="E25">
+        <v>3246</v>
+      </c>
+      <c r="F25">
+        <v>5550</v>
+      </c>
+      <c r="G25">
+        <v>1802</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>9191</v>
+      </c>
+      <c r="J25">
+        <v>940</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>15995</v>
+      </c>
+      <c r="M25">
+        <v>1974</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>93551</v>
+      </c>
+      <c r="P25">
+        <v>5665</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26">
+        <v>38</v>
+      </c>
+      <c r="D26">
+        <v>2352554</v>
+      </c>
+      <c r="E26">
+        <v>15032</v>
+      </c>
+      <c r="F26">
+        <v>169619</v>
+      </c>
+      <c r="G26">
+        <v>11434</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>379770</v>
+      </c>
+      <c r="J26">
+        <v>5995</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>717669</v>
+      </c>
+      <c r="M26">
+        <v>14330</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1085496</v>
+      </c>
+      <c r="P26">
+        <v>18127</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27">
+        <v>39</v>
+      </c>
+      <c r="D27">
+        <v>121819</v>
+      </c>
+      <c r="E27">
+        <v>3274</v>
+      </c>
+      <c r="F27">
+        <v>36786</v>
+      </c>
+      <c r="G27">
+        <v>3860</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>28890</v>
+      </c>
+      <c r="J27">
+        <v>1643</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>35787</v>
+      </c>
+      <c r="M27">
+        <v>2970</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>20356</v>
+      </c>
+      <c r="P27">
+        <v>2160</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28">
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <v>66328</v>
+      </c>
+      <c r="E28">
+        <v>2295</v>
+      </c>
+      <c r="F28">
+        <v>3932</v>
+      </c>
+      <c r="G28">
+        <v>1685</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>12115</v>
+      </c>
+      <c r="J28">
+        <v>1182</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>19009</v>
+      </c>
+      <c r="M28">
+        <v>2263</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>31272</v>
+      </c>
+      <c r="P28">
+        <v>3105</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29">
+        <v>41</v>
+      </c>
+      <c r="D29">
+        <v>912130</v>
+      </c>
+      <c r="E29">
+        <v>10143</v>
+      </c>
+      <c r="F29">
+        <v>40363</v>
+      </c>
+      <c r="G29">
+        <v>5239</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>171494</v>
+      </c>
+      <c r="J29">
+        <v>4303</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>263047</v>
+      </c>
+      <c r="M29">
+        <v>8400</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>437226</v>
+      </c>
+      <c r="P29">
+        <v>11321</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30">
+        <v>42</v>
+      </c>
+      <c r="D30">
+        <v>1151607</v>
+      </c>
+      <c r="E30">
+        <v>8899</v>
+      </c>
+      <c r="F30">
+        <v>84176</v>
+      </c>
+      <c r="G30">
+        <v>7690</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>204255</v>
+      </c>
+      <c r="J30">
+        <v>4550</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>251378</v>
+      </c>
+      <c r="M30">
+        <v>8761</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>611798</v>
+      </c>
+      <c r="P30">
+        <v>14719</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31">
+        <v>43</v>
+      </c>
+      <c r="D31">
+        <v>148185</v>
+      </c>
+      <c r="E31">
+        <v>3540</v>
+      </c>
+      <c r="F31">
+        <v>44778</v>
+      </c>
+      <c r="G31">
+        <v>5550</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>43174</v>
+      </c>
+      <c r="J31">
+        <v>2175</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>38789</v>
+      </c>
+      <c r="M31">
+        <v>3657</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>21444</v>
+      </c>
+      <c r="P31">
+        <v>2529</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32">
+        <v>44</v>
+      </c>
+      <c r="D32">
+        <v>17178</v>
+      </c>
+      <c r="E32">
+        <v>1230</v>
+      </c>
+      <c r="F32">
+        <v>2185</v>
+      </c>
+      <c r="G32">
+        <v>1364</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>2489</v>
+      </c>
+      <c r="J32">
+        <v>478</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>2854</v>
+      </c>
+      <c r="M32">
+        <v>855</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>9650</v>
+      </c>
+      <c r="P32">
+        <v>1759</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33">
+        <v>45</v>
+      </c>
+      <c r="D33">
+        <v>260374</v>
+      </c>
+      <c r="E33">
+        <v>6455</v>
+      </c>
+      <c r="F33">
+        <v>34389</v>
+      </c>
+      <c r="G33">
+        <v>4998</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>38569</v>
+      </c>
+      <c r="J33">
+        <v>2315</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>45581</v>
+      </c>
+      <c r="M33">
+        <v>3889</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>141835</v>
+      </c>
+      <c r="P33">
+        <v>7539</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34">
+        <v>46</v>
+      </c>
+      <c r="D34">
+        <v>34769</v>
+      </c>
+      <c r="E34">
+        <v>1942</v>
+      </c>
+      <c r="F34">
+        <v>2840</v>
+      </c>
+      <c r="G34">
+        <v>1167</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>5768</v>
+      </c>
+      <c r="J34">
+        <v>836</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>6171</v>
+      </c>
+      <c r="M34">
+        <v>1286</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>19990</v>
+      </c>
+      <c r="P34">
+        <v>2650</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35">
+        <v>47</v>
+      </c>
+      <c r="D35">
+        <v>178461</v>
+      </c>
+      <c r="E35">
+        <v>3711</v>
+      </c>
+      <c r="F35">
+        <v>27115</v>
+      </c>
+      <c r="G35">
+        <v>4286</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>31319</v>
+      </c>
+      <c r="J35">
+        <v>1919</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>43643</v>
+      </c>
+      <c r="M35">
+        <v>3811</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>76384</v>
+      </c>
+      <c r="P35">
+        <v>4903</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36">
+        <v>48</v>
+      </c>
+      <c r="D36">
+        <v>1233467</v>
+      </c>
+      <c r="E36">
+        <v>12465</v>
+      </c>
+      <c r="F36">
+        <v>342703</v>
+      </c>
+      <c r="G36">
+        <v>16447</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>262711</v>
+      </c>
+      <c r="J36">
+        <v>6117</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>283941</v>
+      </c>
+      <c r="M36">
+        <v>9567</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>344112</v>
+      </c>
+      <c r="P36">
+        <v>11310</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37">
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <v>327214</v>
+      </c>
+      <c r="E37">
+        <v>2889</v>
+      </c>
+      <c r="F37">
+        <v>45490</v>
+      </c>
+      <c r="G37">
+        <v>6408</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>117232</v>
+      </c>
+      <c r="J37">
+        <v>3604</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>114521</v>
+      </c>
+      <c r="M37">
+        <v>5629</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>49971</v>
+      </c>
+      <c r="P37">
+        <v>3976</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38">
+        <v>51</v>
+      </c>
+      <c r="D38">
+        <v>207985</v>
+      </c>
+      <c r="E38">
+        <v>2703</v>
+      </c>
+      <c r="F38">
+        <v>23620</v>
+      </c>
+      <c r="G38">
+        <v>4353</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>78945</v>
+      </c>
+      <c r="J38">
+        <v>2886</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>72140</v>
+      </c>
+      <c r="M38">
+        <v>4509</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>33280</v>
+      </c>
+      <c r="P38">
+        <v>3160</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39">
+        <v>52</v>
+      </c>
+      <c r="D39">
+        <v>113378</v>
+      </c>
+      <c r="E39">
+        <v>2581</v>
+      </c>
+      <c r="F39">
+        <v>10684</v>
+      </c>
+      <c r="G39">
+        <v>2798</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>43553</v>
+      </c>
+      <c r="J39">
+        <v>2152</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>38934</v>
+      </c>
+      <c r="M39">
+        <v>3267</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>20207</v>
+      </c>
+      <c r="P39">
+        <v>2464</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40">
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>62839</v>
+      </c>
+      <c r="E40">
+        <v>2336</v>
+      </c>
+      <c r="F40">
+        <v>7847</v>
+      </c>
+      <c r="G40">
+        <v>2277</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>23949</v>
+      </c>
+      <c r="J40">
+        <v>1914</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>22544</v>
+      </c>
+      <c r="M40">
+        <v>2631</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>8499</v>
+      </c>
+      <c r="P40">
+        <v>1549</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41">
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <v>25007</v>
+      </c>
+      <c r="E41">
+        <v>1544</v>
+      </c>
+      <c r="F41">
+        <v>4474</v>
+      </c>
+      <c r="G41">
+        <v>2025</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>9183</v>
+      </c>
+      <c r="J41">
+        <v>1128</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>8159</v>
+      </c>
+      <c r="M41">
+        <v>1552</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>3191</v>
+      </c>
+      <c r="P41">
+        <v>985</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42">
+        <v>55</v>
+      </c>
+      <c r="D42">
+        <v>79000</v>
+      </c>
+      <c r="E42">
+        <v>2400</v>
+      </c>
+      <c r="F42">
+        <v>13588</v>
+      </c>
+      <c r="G42">
+        <v>3425</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>27890</v>
+      </c>
+      <c r="J42">
+        <v>1830</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>27495</v>
+      </c>
+      <c r="M42">
+        <v>2969</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>10027</v>
+      </c>
+      <c r="P42">
+        <v>1717</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43">
+        <v>56</v>
+      </c>
+      <c r="D43">
+        <v>46465</v>
+      </c>
+      <c r="E43">
+        <v>1878</v>
+      </c>
+      <c r="F43">
+        <v>6119</v>
+      </c>
+      <c r="G43">
+        <v>2133</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>15202</v>
+      </c>
+      <c r="J43">
+        <v>1290</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>17051</v>
+      </c>
+      <c r="M43">
+        <v>2337</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>8093</v>
+      </c>
+      <c r="P43">
+        <v>1563</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44">
+        <v>57</v>
+      </c>
+      <c r="D44">
+        <v>23239</v>
+      </c>
+      <c r="E44">
+        <v>1393</v>
+      </c>
+      <c r="F44">
+        <v>5108</v>
+      </c>
+      <c r="G44">
+        <v>2130</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>5811</v>
+      </c>
+      <c r="J44">
+        <v>745</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>8976</v>
+      </c>
+      <c r="M44">
+        <v>1832</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>3344</v>
+      </c>
+      <c r="P44">
+        <v>932</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45">
+        <v>58</v>
+      </c>
+      <c r="D45">
+        <v>22778</v>
+      </c>
+      <c r="E45">
+        <v>1368</v>
+      </c>
+      <c r="F45">
+        <v>4978</v>
+      </c>
+      <c r="G45">
+        <v>2099</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>5766</v>
+      </c>
+      <c r="J45">
+        <v>740</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>8848</v>
+      </c>
+      <c r="M45">
+        <v>1840</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>3186</v>
+      </c>
+      <c r="P45">
+        <v>943</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46">
+        <v>60</v>
+      </c>
+      <c r="D46">
+        <v>683036</v>
+      </c>
+      <c r="E46">
+        <v>5774</v>
+      </c>
+      <c r="F46">
+        <v>81810</v>
+      </c>
+      <c r="G46">
+        <v>8329</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>219306</v>
+      </c>
+      <c r="J46">
+        <v>4880</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>238985</v>
+      </c>
+      <c r="M46">
+        <v>8411</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>142935</v>
+      </c>
+      <c r="P46">
+        <v>7192</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47">
+        <v>61</v>
+      </c>
+      <c r="D47">
+        <v>411577</v>
+      </c>
+      <c r="E47">
+        <v>4404</v>
+      </c>
+      <c r="F47">
+        <v>39620</v>
+      </c>
+      <c r="G47">
+        <v>5426</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>146067</v>
+      </c>
+      <c r="J47">
+        <v>3982</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>146131</v>
+      </c>
+      <c r="M47">
+        <v>6689</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>79759</v>
+      </c>
+      <c r="P47">
+        <v>4857</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48">
+        <v>62</v>
+      </c>
+      <c r="D48">
+        <v>296878</v>
+      </c>
+      <c r="E48">
+        <v>4819</v>
+      </c>
+      <c r="F48">
+        <v>24630</v>
+      </c>
+      <c r="G48">
+        <v>4140</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>105365</v>
+      </c>
+      <c r="J48">
+        <v>3515</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>105279</v>
+      </c>
+      <c r="M48">
+        <v>5820</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>61604</v>
+      </c>
+      <c r="P48">
+        <v>4176</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49">
+        <v>63</v>
+      </c>
+      <c r="D49">
+        <v>85269</v>
+      </c>
+      <c r="E49">
+        <v>2761</v>
+      </c>
+      <c r="F49">
+        <v>9974</v>
+      </c>
+      <c r="G49">
+        <v>2535</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>31241</v>
+      </c>
+      <c r="J49">
+        <v>2117</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>30991</v>
+      </c>
+      <c r="M49">
+        <v>3087</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>13063</v>
+      </c>
+      <c r="P49">
+        <v>1894</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50">
+        <v>64</v>
+      </c>
+      <c r="D50">
+        <v>28702</v>
+      </c>
+      <c r="E50">
+        <v>1506</v>
+      </c>
+      <c r="F50">
+        <v>4956</v>
+      </c>
+      <c r="G50">
+        <v>2129</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>10180</v>
+      </c>
+      <c r="J50">
+        <v>1118</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>9472</v>
+      </c>
+      <c r="M50">
+        <v>1643</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>4094</v>
+      </c>
+      <c r="P50">
+        <v>1096</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51">
+        <v>65</v>
+      </c>
+      <c r="D51">
+        <v>103294</v>
+      </c>
+      <c r="E51">
+        <v>2616</v>
+      </c>
+      <c r="F51">
+        <v>15880</v>
+      </c>
+      <c r="G51">
+        <v>3634</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>34115</v>
+      </c>
+      <c r="J51">
+        <v>1920</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>36582</v>
+      </c>
+      <c r="M51">
+        <v>3366</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>16717</v>
+      </c>
+      <c r="P51">
+        <v>2220</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52">
+        <v>66</v>
+      </c>
+      <c r="D52">
+        <v>67519</v>
+      </c>
+      <c r="E52">
+        <v>2316</v>
+      </c>
+      <c r="F52">
+        <v>7873</v>
+      </c>
+      <c r="G52">
+        <v>2378</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>20472</v>
+      </c>
+      <c r="J52">
+        <v>1493</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>25050</v>
+      </c>
+      <c r="M52">
+        <v>2711</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>14124</v>
+      </c>
+      <c r="P52">
+        <v>2070</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53">
+        <v>67</v>
+      </c>
+      <c r="D53">
+        <v>27398</v>
+      </c>
+      <c r="E53">
+        <v>1441</v>
+      </c>
+      <c r="F53">
+        <v>5946</v>
+      </c>
+      <c r="G53">
+        <v>2240</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>7011</v>
+      </c>
+      <c r="J53">
+        <v>829</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>10210</v>
+      </c>
+      <c r="M53">
+        <v>1941</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>4231</v>
+      </c>
+      <c r="P53">
+        <v>1088</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54">
+        <v>68</v>
+      </c>
+      <c r="D54">
+        <v>26738</v>
+      </c>
+      <c r="E54">
+        <v>1425</v>
+      </c>
+      <c r="F54">
+        <v>5800</v>
+      </c>
+      <c r="G54">
+        <v>2214</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>6941</v>
+      </c>
+      <c r="J54">
+        <v>830</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>10055</v>
+      </c>
+      <c r="M54">
+        <v>1950</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>3942</v>
+      </c>
+      <c r="P54">
+        <v>1073</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55">
+        <v>72</v>
+      </c>
+      <c r="D55">
+        <v>13964</v>
+      </c>
+      <c r="E55">
+        <v>1611</v>
+      </c>
+      <c r="F55">
+        <v>8828</v>
+      </c>
+      <c r="G55">
+        <v>2565</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>2480</v>
+      </c>
+      <c r="J55">
+        <v>596</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1270</v>
+      </c>
+      <c r="M55">
+        <v>615</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1386</v>
+      </c>
+      <c r="P55">
+        <v>620</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56">
+        <v>73</v>
+      </c>
+      <c r="D56">
+        <v>68005</v>
+      </c>
+      <c r="E56">
+        <v>2892</v>
+      </c>
+      <c r="F56">
+        <v>33536</v>
+      </c>
+      <c r="G56">
+        <v>5232</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>10381</v>
+      </c>
+      <c r="J56">
+        <v>962</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>7591</v>
+      </c>
+      <c r="M56">
+        <v>1601</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>16497</v>
+      </c>
+      <c r="P56">
+        <v>2243</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57">
+        <v>75</v>
+      </c>
+      <c r="D57">
+        <v>9936</v>
+      </c>
+      <c r="E57">
+        <v>1041</v>
+      </c>
+      <c r="F57">
+        <v>569</v>
+      </c>
+      <c r="G57">
+        <v>773</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1018</v>
+      </c>
+      <c r="J57">
+        <v>300</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>2166</v>
+      </c>
+      <c r="M57">
+        <v>860</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>6183</v>
+      </c>
+      <c r="P57">
+        <v>1523</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58">
+        <v>76</v>
+      </c>
+      <c r="D58">
+        <v>63489</v>
+      </c>
+      <c r="E58">
+        <v>2888</v>
+      </c>
+      <c r="F58">
+        <v>17575</v>
+      </c>
+      <c r="G58">
+        <v>3787</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>8810</v>
+      </c>
+      <c r="J58">
+        <v>1174</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>9770</v>
+      </c>
+      <c r="M58">
+        <v>1801</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>27334</v>
+      </c>
+      <c r="P58">
+        <v>3111</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59">
+        <v>80</v>
+      </c>
+      <c r="D59">
+        <v>16142</v>
+      </c>
+      <c r="E59">
+        <v>1655</v>
+      </c>
+      <c r="F59">
+        <v>10220</v>
+      </c>
+      <c r="G59">
+        <v>2710</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>2782</v>
+      </c>
+      <c r="J59">
+        <v>601</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>1471</v>
+      </c>
+      <c r="M59">
+        <v>653</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>1669</v>
+      </c>
+      <c r="P59">
+        <v>678</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60">
+        <v>81</v>
+      </c>
+      <c r="D60">
+        <v>73834</v>
+      </c>
+      <c r="E60">
+        <v>2992</v>
+      </c>
+      <c r="F60">
+        <v>35391</v>
+      </c>
+      <c r="G60">
+        <v>5363</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>11032</v>
+      </c>
+      <c r="J60">
+        <v>1051</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>8438</v>
+      </c>
+      <c r="M60">
+        <v>1661</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>18973</v>
+      </c>
+      <c r="P60">
+        <v>2479</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61">
+        <v>83</v>
+      </c>
+      <c r="D61">
+        <v>12232</v>
+      </c>
+      <c r="E61">
+        <v>1176</v>
+      </c>
+      <c r="F61">
+        <v>745</v>
+      </c>
+      <c r="G61">
+        <v>836</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1301</v>
+      </c>
+      <c r="J61">
+        <v>353</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>2817</v>
+      </c>
+      <c r="M61">
+        <v>938</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>7369</v>
+      </c>
+      <c r="P61">
+        <v>1621</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62">
+        <v>84</v>
+      </c>
+      <c r="D62">
+        <v>67041</v>
+      </c>
+      <c r="E62">
+        <v>3025</v>
+      </c>
+      <c r="F62">
+        <v>18728</v>
+      </c>
+      <c r="G62">
+        <v>3840</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>9516</v>
+      </c>
+      <c r="J62">
+        <v>1225</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>10387</v>
+      </c>
+      <c r="M62">
+        <v>1866</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>28410</v>
+      </c>
+      <c r="P62">
+        <v>3180</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63">
+        <v>85</v>
+      </c>
+      <c r="D63">
+        <v>7419</v>
+      </c>
+      <c r="E63">
+        <v>589</v>
+      </c>
+      <c r="F63">
+        <v>280</v>
+      </c>
+      <c r="G63">
+        <v>373</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1265</v>
+      </c>
+      <c r="J63">
+        <v>327</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>2364</v>
+      </c>
+      <c r="M63">
+        <v>718</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>3510</v>
+      </c>
+      <c r="P63">
+        <v>885</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64">
+        <v>96</v>
+      </c>
+      <c r="D64">
+        <v>10403</v>
+      </c>
+      <c r="E64">
+        <v>971</v>
+      </c>
+      <c r="F64">
+        <v>2612</v>
+      </c>
+      <c r="G64">
+        <v>1586</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>5109</v>
+      </c>
+      <c r="J64">
+        <v>858</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>2442</v>
+      </c>
+      <c r="M64">
+        <v>801</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>240</v>
+      </c>
+      <c r="P64">
+        <v>287</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65">
+        <v>176</v>
+      </c>
+      <c r="D65">
+        <v>11133</v>
+      </c>
+      <c r="E65">
+        <v>1067</v>
+      </c>
+      <c r="F65">
+        <v>2751</v>
+      </c>
+      <c r="G65">
+        <v>1629</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>5413</v>
+      </c>
+      <c r="J65">
+        <v>879</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>2539</v>
+      </c>
+      <c r="M65">
+        <v>812</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>430</v>
+      </c>
+      <c r="P65">
+        <v>388</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66">
+        <v>177</v>
+      </c>
+      <c r="D66">
+        <v>4739</v>
+      </c>
+      <c r="E66">
+        <v>593</v>
+      </c>
+      <c r="F66">
+        <v>303</v>
+      </c>
+      <c r="G66">
+        <v>467</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1246</v>
+      </c>
+      <c r="J66">
+        <v>365</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>2355</v>
+      </c>
+      <c r="M66">
+        <v>961</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>835</v>
+      </c>
+      <c r="P66">
+        <v>450</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3002,4 +6779,1342 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="80.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>316515008</v>
+      </c>
+      <c r="D2">
+        <v>222464704</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>16235305</v>
+      </c>
+      <c r="D3">
+        <v>8769653</v>
+      </c>
+      <c r="E3">
+        <v>5.1293950527906418E-2</v>
+      </c>
+      <c r="F3">
+        <v>3.9420425891876221E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>3303512</v>
+      </c>
+      <c r="D4">
+        <v>1434568</v>
+      </c>
+      <c r="E4">
+        <v>1.0437142103910446E-2</v>
+      </c>
+      <c r="F4">
+        <v>6.4485194161534309E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>153234</v>
+      </c>
+      <c r="D5">
+        <v>64614</v>
+      </c>
+      <c r="E5">
+        <v>4.8412871547043324E-4</v>
+      </c>
+      <c r="F5">
+        <v>2.9044607072137296E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <v>263396</v>
+      </c>
+      <c r="D6">
+        <v>158556</v>
+      </c>
+      <c r="E6">
+        <v>8.321753703057766E-4</v>
+      </c>
+      <c r="F6">
+        <v>7.127242861315608E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7">
+        <v>3693977</v>
+      </c>
+      <c r="D7">
+        <v>1986125</v>
+      </c>
+      <c r="E7">
+        <v>1.1670780368149281E-2</v>
+      </c>
+      <c r="F7">
+        <v>8.9278211817145348E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>148275</v>
+      </c>
+      <c r="D8">
+        <v>94681</v>
+      </c>
+      <c r="E8">
+        <v>4.6846119221299887E-4</v>
+      </c>
+      <c r="F8">
+        <v>4.2560009751468897E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>2717844</v>
+      </c>
+      <c r="D9">
+        <v>1713835</v>
+      </c>
+      <c r="E9">
+        <v>8.5867773741483688E-3</v>
+      </c>
+      <c r="F9">
+        <v>7.703851442784071E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10">
+        <v>267009</v>
+      </c>
+      <c r="D10">
+        <v>140899</v>
+      </c>
+      <c r="E10">
+        <v>8.4359035827219486E-4</v>
+      </c>
+      <c r="F10">
+        <v>6.3335441518574953E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11">
+        <v>71451</v>
+      </c>
+      <c r="D11">
+        <v>24703</v>
+      </c>
+      <c r="E11">
+        <v>2.2574285685550421E-4</v>
+      </c>
+      <c r="F11">
+        <v>1.1104233271908015E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12">
+        <v>779637</v>
+      </c>
+      <c r="D12">
+        <v>500155</v>
+      </c>
+      <c r="E12">
+        <v>2.463191282004118E-3</v>
+      </c>
+      <c r="F12">
+        <v>2.2482443600893021E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <v>1460214</v>
+      </c>
+      <c r="D13">
+        <v>810630</v>
+      </c>
+      <c r="E13">
+        <v>4.6134116128087044E-3</v>
+      </c>
+      <c r="F13">
+        <v>3.6438589449971914E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <v>207999</v>
+      </c>
+      <c r="D14">
+        <v>124308</v>
+      </c>
+      <c r="E14">
+        <v>6.5715366508811712E-4</v>
+      </c>
+      <c r="F14">
+        <v>5.5877625709399581E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <v>18803</v>
+      </c>
+      <c r="D15">
+        <v>5648</v>
+      </c>
+      <c r="E15">
+        <v>5.940634582657367E-5</v>
+      </c>
+      <c r="F15">
+        <v>2.538829721743241E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16">
+        <v>414880</v>
+      </c>
+      <c r="D16">
+        <v>204726</v>
+      </c>
+      <c r="E16">
+        <v>1.3107751728966832E-3</v>
+      </c>
+      <c r="F16">
+        <v>9.2026282800361514E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17">
+        <v>46036</v>
+      </c>
+      <c r="D17">
+        <v>20164</v>
+      </c>
+      <c r="E17">
+        <v>1.4544649457093328E-4</v>
+      </c>
+      <c r="F17">
+        <v>9.0639099653344601E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18">
+        <v>188673</v>
+      </c>
+      <c r="D18">
+        <v>104884</v>
+      </c>
+      <c r="E18">
+        <v>5.9609493473544717E-4</v>
+      </c>
+      <c r="F18">
+        <v>4.7146354336291552E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19">
+        <v>1710547</v>
+      </c>
+      <c r="D19">
+        <v>1065739</v>
+      </c>
+      <c r="E19">
+        <v>5.404315423220396E-3</v>
+      </c>
+      <c r="F19">
+        <v>4.7905980609357357E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20">
+        <v>19167716</v>
+      </c>
+      <c r="D20">
+        <v>10138697</v>
+      </c>
+      <c r="E20">
+        <v>6.0558632016181946E-2</v>
+      </c>
+      <c r="F20">
+        <v>4.5574408024549484E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21">
+        <v>3590279</v>
+      </c>
+      <c r="D21">
+        <v>1558594</v>
+      </c>
+      <c r="E21">
+        <v>1.1343155987560749E-2</v>
+      </c>
+      <c r="F21">
+        <v>7.006028201431036E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22">
+        <v>164821</v>
+      </c>
+      <c r="D22">
+        <v>69825</v>
+      </c>
+      <c r="E22">
+        <v>5.2073673577979207E-4</v>
+      </c>
+      <c r="F22">
+        <v>3.1387002673000097E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23">
+        <v>316640</v>
+      </c>
+      <c r="D23">
+        <v>176113</v>
+      </c>
+      <c r="E23">
+        <v>1.0003949282690883E-3</v>
+      </c>
+      <c r="F23">
+        <v>7.9164467751979828E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24">
+        <v>4428363</v>
+      </c>
+      <c r="D24">
+        <v>2357165</v>
+      </c>
+      <c r="E24">
+        <v>1.3991004787385464E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.0595681145787239E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25">
+        <v>181029</v>
+      </c>
+      <c r="D25">
+        <v>109715</v>
+      </c>
+      <c r="E25">
+        <v>5.7194445980712771E-4</v>
+      </c>
+      <c r="F25">
+        <v>4.9317936645820737E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26">
+        <v>3707082</v>
+      </c>
+      <c r="D26">
+        <v>2181775</v>
+      </c>
+      <c r="E26">
+        <v>1.1712184175848961E-2</v>
+      </c>
+      <c r="F26">
+        <v>9.8072858527302742E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27">
+        <v>280410</v>
+      </c>
+      <c r="D27">
+        <v>144882</v>
+      </c>
+      <c r="E27">
+        <v>8.8592956308275461E-4</v>
+      </c>
+      <c r="F27">
+        <v>6.5125839319080114E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28">
+        <v>108477</v>
+      </c>
+      <c r="D28">
+        <v>41617</v>
+      </c>
+      <c r="E28">
+        <v>3.4272309858351946E-4</v>
+      </c>
+      <c r="F28">
+        <v>1.8707237904891372E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29">
+        <v>1388163</v>
+      </c>
+      <c r="D29">
+        <v>831898</v>
+      </c>
+      <c r="E29">
+        <v>4.385773092508316E-3</v>
+      </c>
+      <c r="F29">
+        <v>3.7394606042653322E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30">
+        <v>1792437</v>
+      </c>
+      <c r="D30">
+        <v>953489</v>
+      </c>
+      <c r="E30">
+        <v>5.6630396284162998E-3</v>
+      </c>
+      <c r="F30">
+        <v>4.2860237881541252E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31">
+        <v>256416</v>
+      </c>
+      <c r="D31">
+        <v>137527</v>
+      </c>
+      <c r="E31">
+        <v>8.1012269947677851E-4</v>
+      </c>
+      <c r="F31">
+        <v>6.1819696566089988E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32">
+        <v>28818</v>
+      </c>
+      <c r="D32">
+        <v>9973</v>
+      </c>
+      <c r="E32">
+        <v>9.1047812020406127E-5</v>
+      </c>
+      <c r="F32">
+        <v>4.4829583202954382E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33">
+        <v>455005</v>
+      </c>
+      <c r="D33">
+        <v>222252</v>
+      </c>
+      <c r="E33">
+        <v>1.4375463360920548E-3</v>
+      </c>
+      <c r="F33">
+        <v>9.9904392845928669E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34">
+        <v>52267</v>
+      </c>
+      <c r="D34">
+        <v>22161</v>
+      </c>
+      <c r="E34">
+        <v>1.6513277660124004E-4</v>
+      </c>
+      <c r="F34">
+        <v>9.9615805083885789E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35">
+        <v>278281</v>
+      </c>
+      <c r="D35">
+        <v>142232</v>
+      </c>
+      <c r="E35">
+        <v>8.7920320220291615E-4</v>
+      </c>
+      <c r="F35">
+        <v>6.3934637000784278E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36">
+        <v>1928363</v>
+      </c>
+      <c r="D36">
+        <v>1163357</v>
+      </c>
+      <c r="E36">
+        <v>6.0924850404262543E-3</v>
+      </c>
+      <c r="F36">
+        <v>5.2294004708528519E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37">
+        <v>546255</v>
+      </c>
+      <c r="D37">
+        <v>332580</v>
+      </c>
+      <c r="E37">
+        <v>1.7258423613384366E-3</v>
+      </c>
+      <c r="F37">
+        <v>1.4949786709621549E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38">
+        <v>1262434</v>
+      </c>
+      <c r="D38">
+        <v>748301</v>
+      </c>
+      <c r="E38">
+        <v>3.9885439909994602E-3</v>
+      </c>
+      <c r="F38">
+        <v>3.3636840526014566E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39">
+        <v>21441</v>
+      </c>
+      <c r="D39">
+        <v>1037</v>
+      </c>
+      <c r="E39">
+        <v>6.77408606861718E-5</v>
+      </c>
+      <c r="F39">
+        <v>4.661413640860701E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40">
+        <v>126590</v>
+      </c>
+      <c r="D40">
+        <v>24852</v>
+      </c>
+      <c r="E40">
+        <v>3.9994943654164672E-4</v>
+      </c>
+      <c r="F40">
+        <v>1.1171210644533858E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41">
+        <v>15919</v>
+      </c>
+      <c r="D41">
+        <v>3204</v>
+      </c>
+      <c r="E41">
+        <v>5.0294613174628466E-5</v>
+      </c>
+      <c r="F41">
+        <v>1.4402284250536468E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42">
+        <v>103526</v>
+      </c>
+      <c r="D42">
+        <v>17630</v>
+      </c>
+      <c r="E42">
+        <v>3.2708086655475199E-4</v>
+      </c>
+      <c r="F42">
+        <v>7.9248529800679535E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43">
+        <v>24875</v>
+      </c>
+      <c r="D43">
+        <v>1242</v>
+      </c>
+      <c r="E43">
+        <v>7.8590266639366746E-5</v>
+      </c>
+      <c r="F43">
+        <v>5.5829082157288212E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44">
+        <v>138426</v>
+      </c>
+      <c r="D44">
+        <v>29127</v>
+      </c>
+      <c r="E44">
+        <v>4.3734419159591198E-4</v>
+      </c>
+      <c r="F44">
+        <v>1.3092863082420081E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45">
+        <v>20546</v>
+      </c>
+      <c r="D45">
+        <v>5519</v>
+      </c>
+      <c r="E45">
+        <v>6.4913190726656467E-5</v>
+      </c>
+      <c r="F45">
+        <v>2.4808430680423044E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46">
+        <v>111021</v>
+      </c>
+      <c r="D46">
+        <v>18931</v>
+      </c>
+      <c r="E46">
+        <v>3.5076061612926424E-4</v>
+      </c>
+      <c r="F46">
+        <v>8.5096646216697991E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47">
+        <v>11627</v>
+      </c>
+      <c r="D47">
+        <v>8300</v>
+      </c>
+      <c r="E47">
+        <v>3.6734436434926465E-5</v>
+      </c>
+      <c r="F47">
+        <v>3.7309288018150255E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48">
+        <v>344487</v>
+      </c>
+      <c r="D48">
+        <v>232958</v>
+      </c>
+      <c r="E48">
+        <v>1.0883748764172196E-3</v>
+      </c>
+      <c r="F48">
+        <v>1.047168392688036E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49">
+        <v>174460</v>
+      </c>
+      <c r="D49">
+        <v>132370</v>
+      </c>
+      <c r="E49">
+        <v>5.5119028547778726E-4</v>
+      </c>
+      <c r="F49">
+        <v>5.9501576470211148E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50">
+        <v>109455</v>
+      </c>
+      <c r="D50">
+        <v>72519</v>
+      </c>
+      <c r="E50">
+        <v>3.4581299405544996E-4</v>
+      </c>
+      <c r="F50">
+        <v>3.2597981044091284E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51">
+        <v>45453</v>
+      </c>
+      <c r="D51">
+        <v>20524</v>
+      </c>
+      <c r="E51">
+        <v>1.4360457134898752E-4</v>
+      </c>
+      <c r="F51">
+        <v>9.2257330834399909E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52">
+        <v>138360</v>
+      </c>
+      <c r="D52">
+        <v>64647</v>
+      </c>
+      <c r="E52">
+        <v>4.3713566265068948E-4</v>
+      </c>
+      <c r="F52">
+        <v>2.9059441294521093E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53">
+        <v>73088</v>
+      </c>
+      <c r="D53">
+        <v>54298</v>
+      </c>
+      <c r="E53">
+        <v>2.3091479670256376E-4</v>
+      </c>
+      <c r="F53">
+        <v>2.4407467572018504E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54">
+        <v>34239</v>
+      </c>
+      <c r="D54">
+        <v>17449</v>
+      </c>
+      <c r="E54">
+        <v>1.0817496513482183E-4</v>
+      </c>
+      <c r="F54">
+        <v>7.8434917668346316E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55">
+        <v>33468</v>
+      </c>
+      <c r="D55">
+        <v>17304</v>
+      </c>
+      <c r="E55">
+        <v>1.0573906183708459E-4</v>
+      </c>
+      <c r="F55">
+        <v>7.7783122833352536E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56">
+        <v>783326</v>
+      </c>
+      <c r="D56">
+        <v>487743</v>
+      </c>
+      <c r="E56">
+        <v>2.4748463183641434E-3</v>
+      </c>
+      <c r="F56">
+        <v>2.1924511529505253E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57">
+        <v>549858</v>
+      </c>
+      <c r="D57">
+        <v>360525</v>
+      </c>
+      <c r="E57">
+        <v>1.7372256843373179E-3</v>
+      </c>
+      <c r="F57">
+        <v>1.6205941792577505E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58">
+        <v>182968</v>
+      </c>
+      <c r="D58">
+        <v>104560</v>
+      </c>
+      <c r="E58">
+        <v>5.7807052507996559E-4</v>
+      </c>
+      <c r="F58">
+        <v>4.7000712947919965E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59">
+        <v>62458</v>
+      </c>
+      <c r="D59">
+        <v>26133</v>
+      </c>
+      <c r="E59">
+        <v>1.9733030057977885E-4</v>
+      </c>
+      <c r="F59">
+        <v>1.1747032112907618E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60">
+        <v>207128</v>
+      </c>
+      <c r="D60">
+        <v>95823</v>
+      </c>
+      <c r="E60">
+        <v>6.5440183971077204E-4</v>
+      </c>
+      <c r="F60">
+        <v>4.3073348933830857E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61">
+        <v>130476</v>
+      </c>
+      <c r="D61">
+        <v>82128</v>
+      </c>
+      <c r="E61">
+        <v>4.1222688741981983E-4</v>
+      </c>
+      <c r="F61">
+        <v>3.6917318357154727E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62">
+        <v>43211</v>
+      </c>
+      <c r="D62">
+        <v>21654</v>
+      </c>
+      <c r="E62">
+        <v>1.3652117922902107E-4</v>
+      </c>
+      <c r="F62">
+        <v>9.7336785984225571E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63">
+        <v>42110</v>
+      </c>
+      <c r="D63">
+        <v>21305</v>
+      </c>
+      <c r="E63">
+        <v>1.330426603090018E-4</v>
+      </c>
+      <c r="F63">
+        <v>9.5768002211116254E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64">
+        <v>23444</v>
+      </c>
+      <c r="D64">
+        <v>2088</v>
+      </c>
+      <c r="E64">
+        <v>7.4069161200895905E-5</v>
+      </c>
+      <c r="F64">
+        <v>9.385758858115878E-6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65">
+        <v>26856</v>
+      </c>
+      <c r="D65">
+        <v>2597</v>
+      </c>
+      <c r="E65">
+        <v>8.4849059931002557E-5</v>
+      </c>
+      <c r="F65">
+        <v>1.1673761946440209E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66">
+        <v>8957</v>
+      </c>
+      <c r="D66">
+        <v>3664</v>
+      </c>
+      <c r="E66">
+        <v>2.8298816687311046E-5</v>
+      </c>
+      <c r="F66">
+        <v>1.6470028640469536E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/national_dta.xlsx
+++ b/national_dta.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-32020" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-32020" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="3" r:id="rId1"/>
@@ -2324,8 +2324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection sqref="A1:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6785,7 +6785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/national_dta.xlsx
+++ b/national_dta.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-32020" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-33600" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Education" sheetId="3" r:id="rId1"/>
-    <sheet name="education2" sheetId="5" r:id="rId2"/>
-    <sheet name="CVAP" sheetId="2" r:id="rId3"/>
-    <sheet name="cvap2" sheetId="4" r:id="rId4"/>
+    <sheet name="edu" sheetId="5" r:id="rId1"/>
+    <sheet name="cvap" sheetId="4" r:id="rId2"/>
+    <sheet name="lep" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,41 +29,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="105">
   <si>
     <t>total_pop</t>
   </si>
   <si>
-    <t>total_hsged</t>
-  </si>
-  <si>
-    <t>total_hs_higher</t>
-  </si>
-  <si>
-    <t>total_ba</t>
-  </si>
-  <si>
-    <t>total_ba_higher</t>
-  </si>
-  <si>
     <t>Total population</t>
   </si>
   <si>
-    <t xml:space="preserve">Chinese </t>
-  </si>
-  <si>
-    <t>group_ID</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
     <t>CVAP</t>
   </si>
   <si>
-    <t>Major Racial Groups</t>
-  </si>
-  <si>
     <t>Asian Detail</t>
   </si>
   <si>
@@ -77,111 +55,6 @@
     <t>NHPI Detail Combo</t>
   </si>
   <si>
-    <t xml:space="preserve">Asian Indian </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladeshi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodian </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taiwanese </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filipino </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hmong </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesian </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japanese </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korean </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laotian </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysian </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistani </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri Lankan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thai </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vietnamese </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polynesian </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Native Hawaiian </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samoan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tongan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micronesian </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guamanian or Chamorro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanesian </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fijian </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhutanese </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burmese </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolian </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepalese </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marshallese </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okinawan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palauan </t>
-  </si>
-  <si>
-    <t>Asian Alone</t>
-  </si>
-  <si>
-    <t>Asian Alone/Combo</t>
-  </si>
-  <si>
-    <t>Native Hawaiian and Other Pacific Islander Alone</t>
-  </si>
-  <si>
-    <t>Native Hawaiian and Other Pacific Islander Alone/Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinese (except Taiwanese) </t>
-  </si>
-  <si>
     <t>Major racial groups</t>
   </si>
   <si>
@@ -438,23 +311,49 @@
   </si>
   <si>
     <t>pop_id</t>
+  </si>
+  <si>
+    <t>est_lep</t>
+  </si>
+  <si>
+    <t>moe_lep</t>
+  </si>
+  <si>
+    <t>checking_lep</t>
+  </si>
+  <si>
+    <t>pct_lep</t>
+  </si>
+  <si>
+    <t>group_id</t>
+  </si>
+  <si>
+    <t>est_totalpop</t>
+  </si>
+  <si>
+    <t>moe_totalpop</t>
+  </si>
+  <si>
+    <t>checking_totpop</t>
+  </si>
+  <si>
+    <t>est_other_lang</t>
+  </si>
+  <si>
+    <t>moe_other_lang</t>
+  </si>
+  <si>
+    <t>checking_other_lang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -495,14 +394,13 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -784,1548 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="124" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>211462522</v>
-      </c>
-      <c r="D2">
-        <v>58722528</v>
-      </c>
-      <c r="E2">
-        <v>61558628</v>
-      </c>
-      <c r="F2">
-        <v>39166047</v>
-      </c>
-      <c r="G2">
-        <v>62952272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <v>11220496</v>
-      </c>
-      <c r="D3">
-        <v>1716257</v>
-      </c>
-      <c r="E3">
-        <v>2160511</v>
-      </c>
-      <c r="F3">
-        <v>3330457</v>
-      </c>
-      <c r="G3">
-        <v>5770522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>2251829</v>
-      </c>
-      <c r="D4">
-        <v>197964</v>
-      </c>
-      <c r="E4">
-        <v>230685</v>
-      </c>
-      <c r="F4">
-        <v>730705</v>
-      </c>
-      <c r="G4">
-        <v>1637107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>93875</v>
-      </c>
-      <c r="D5">
-        <v>17304</v>
-      </c>
-      <c r="E5">
-        <v>15916</v>
-      </c>
-      <c r="F5">
-        <v>23957</v>
-      </c>
-      <c r="G5">
-        <v>45245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>171518</v>
-      </c>
-      <c r="D6">
-        <v>42415</v>
-      </c>
-      <c r="E6">
-        <v>42434</v>
-      </c>
-      <c r="F6">
-        <v>21464</v>
-      </c>
-      <c r="G6">
-        <v>28240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7">
-        <v>2575144</v>
-      </c>
-      <c r="D7">
-        <v>375971</v>
-      </c>
-      <c r="E7">
-        <v>369957</v>
-      </c>
-      <c r="F7">
-        <v>665711</v>
-      </c>
-      <c r="G7">
-        <v>1350851</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>110533</v>
-      </c>
-      <c r="D8">
-        <v>8018</v>
-      </c>
-      <c r="E8">
-        <v>13418</v>
-      </c>
-      <c r="F8">
-        <v>33920</v>
-      </c>
-      <c r="G8">
-        <v>84027</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>1995300</v>
-      </c>
-      <c r="D9">
-        <v>301191</v>
-      </c>
-      <c r="E9">
-        <v>587477</v>
-      </c>
-      <c r="F9">
-        <v>780469</v>
-      </c>
-      <c r="G9">
-        <v>959281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>118806</v>
-      </c>
-      <c r="D10">
-        <v>27984</v>
-      </c>
-      <c r="E10">
-        <v>35014</v>
-      </c>
-      <c r="F10">
-        <v>15597</v>
-      </c>
-      <c r="G10">
-        <v>19895</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>49133</v>
-      </c>
-      <c r="D11">
-        <v>9328</v>
-      </c>
-      <c r="E11">
-        <v>12978</v>
-      </c>
-      <c r="F11">
-        <v>15269</v>
-      </c>
-      <c r="G11">
-        <v>23563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12">
-        <v>653893</v>
-      </c>
-      <c r="D12">
-        <v>124921</v>
-      </c>
-      <c r="E12">
-        <v>174843</v>
-      </c>
-      <c r="F12">
-        <v>211441</v>
-      </c>
-      <c r="G12">
-        <v>323185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>1042748</v>
-      </c>
-      <c r="D13">
-        <v>187183</v>
-      </c>
-      <c r="E13">
-        <v>212032</v>
-      </c>
-      <c r="F13">
-        <v>357593</v>
-      </c>
-      <c r="G13">
-        <v>564219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14">
-        <v>138426</v>
-      </c>
-      <c r="D14">
-        <v>40830</v>
-      </c>
-      <c r="E14">
-        <v>35933</v>
-      </c>
-      <c r="F14">
-        <v>14737</v>
-      </c>
-      <c r="G14">
-        <v>19231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15">
-        <v>12302</v>
-      </c>
-      <c r="D15">
-        <v>1813</v>
-      </c>
-      <c r="E15">
-        <v>1795</v>
-      </c>
-      <c r="F15">
-        <v>4311</v>
-      </c>
-      <c r="G15">
-        <v>7104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16">
-        <v>244845</v>
-      </c>
-      <c r="D16">
-        <v>36923</v>
-      </c>
-      <c r="E16">
-        <v>42117</v>
-      </c>
-      <c r="F16">
-        <v>72580</v>
-      </c>
-      <c r="G16">
-        <v>133317</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17">
-        <v>32654</v>
-      </c>
-      <c r="D17">
-        <v>5448</v>
-      </c>
-      <c r="E17">
-        <v>5827</v>
-      </c>
-      <c r="F17">
-        <v>8430</v>
-      </c>
-      <c r="G17">
-        <v>18704</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18">
-        <v>148187</v>
-      </c>
-      <c r="D18">
-        <v>25508</v>
-      </c>
-      <c r="E18">
-        <v>32717</v>
-      </c>
-      <c r="F18">
-        <v>41232</v>
-      </c>
-      <c r="G18">
-        <v>65270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19">
-        <v>1155779</v>
-      </c>
-      <c r="D19">
-        <v>251059</v>
-      </c>
-      <c r="E19">
-        <v>264024</v>
-      </c>
-      <c r="F19">
-        <v>224552</v>
-      </c>
-      <c r="G19">
-        <v>315759</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20">
-        <v>12383066</v>
-      </c>
-      <c r="D20">
-        <v>1936554</v>
-      </c>
-      <c r="E20">
-        <v>2520723</v>
-      </c>
-      <c r="F20">
-        <v>3632874</v>
-      </c>
-      <c r="G20">
-        <v>6252685</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21">
-        <v>2381484</v>
-      </c>
-      <c r="D21">
-        <v>219021</v>
-      </c>
-      <c r="E21">
-        <v>259030</v>
-      </c>
-      <c r="F21">
-        <v>762020</v>
-      </c>
-      <c r="G21">
-        <v>1697526</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <v>99790</v>
-      </c>
-      <c r="D22">
-        <v>18300</v>
-      </c>
-      <c r="E22">
-        <v>16966</v>
-      </c>
-      <c r="F22">
-        <v>25546</v>
-      </c>
-      <c r="G22">
-        <v>47913</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23">
-        <v>186325</v>
-      </c>
-      <c r="D23">
-        <v>44838</v>
-      </c>
-      <c r="E23">
-        <v>46591</v>
-      </c>
-      <c r="F23">
-        <v>24150</v>
-      </c>
-      <c r="G23">
-        <v>31739</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24">
-        <v>2883817</v>
-      </c>
-      <c r="D24">
-        <v>429764</v>
-      </c>
-      <c r="E24">
-        <v>455243</v>
-      </c>
-      <c r="F24">
-        <v>754840</v>
-      </c>
-      <c r="G24">
-        <v>1490886</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25">
-        <v>124287</v>
-      </c>
-      <c r="D25">
-        <v>9191</v>
-      </c>
-      <c r="E25">
-        <v>15995</v>
-      </c>
-      <c r="F25">
-        <v>38425</v>
-      </c>
-      <c r="G25">
-        <v>93551</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26">
-        <v>2352554</v>
-      </c>
-      <c r="D26">
-        <v>379770</v>
-      </c>
-      <c r="E26">
-        <v>717669</v>
-      </c>
-      <c r="F26">
-        <v>871834</v>
-      </c>
-      <c r="G26">
-        <v>1085496</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27">
-        <v>121819</v>
-      </c>
-      <c r="D27">
-        <v>28890</v>
-      </c>
-      <c r="E27">
-        <v>35787</v>
-      </c>
-      <c r="F27">
-        <v>15923</v>
-      </c>
-      <c r="G27">
-        <v>20356</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28">
-        <v>66328</v>
-      </c>
-      <c r="D28">
-        <v>12115</v>
-      </c>
-      <c r="E28">
-        <v>19009</v>
-      </c>
-      <c r="F28">
-        <v>20203</v>
-      </c>
-      <c r="G28">
-        <v>31272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29">
-        <v>912130</v>
-      </c>
-      <c r="D29">
-        <v>171494</v>
-      </c>
-      <c r="E29">
-        <v>263047</v>
-      </c>
-      <c r="F29">
-        <v>286563</v>
-      </c>
-      <c r="G29">
-        <v>437226</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30">
-        <v>1151607</v>
-      </c>
-      <c r="D30">
-        <v>204255</v>
-      </c>
-      <c r="E30">
-        <v>251378</v>
-      </c>
-      <c r="F30">
-        <v>389693</v>
-      </c>
-      <c r="G30">
-        <v>611798</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31">
-        <v>148185</v>
-      </c>
-      <c r="D31">
-        <v>43174</v>
-      </c>
-      <c r="E31">
-        <v>38789</v>
-      </c>
-      <c r="F31">
-        <v>16454</v>
-      </c>
-      <c r="G31">
-        <v>21444</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32">
-        <v>17178</v>
-      </c>
-      <c r="D32">
-        <v>2489</v>
-      </c>
-      <c r="E32">
-        <v>2854</v>
-      </c>
-      <c r="F32">
-        <v>5873</v>
-      </c>
-      <c r="G32">
-        <v>9650</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33">
-        <v>260374</v>
-      </c>
-      <c r="D33">
-        <v>38569</v>
-      </c>
-      <c r="E33">
-        <v>45581</v>
-      </c>
-      <c r="F33">
-        <v>76869</v>
-      </c>
-      <c r="G33">
-        <v>141835</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34">
-        <v>34769</v>
-      </c>
-      <c r="D34">
-        <v>5768</v>
-      </c>
-      <c r="E34">
-        <v>6171</v>
-      </c>
-      <c r="F34">
-        <v>9126</v>
-      </c>
-      <c r="G34">
-        <v>19990</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35">
-        <v>178461</v>
-      </c>
-      <c r="D35">
-        <v>31319</v>
-      </c>
-      <c r="E35">
-        <v>43643</v>
-      </c>
-      <c r="F35">
-        <v>48507</v>
-      </c>
-      <c r="G35">
-        <v>76384</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36">
-        <v>1233467</v>
-      </c>
-      <c r="D36">
-        <v>262711</v>
-      </c>
-      <c r="E36">
-        <v>283941</v>
-      </c>
-      <c r="F36">
-        <v>244371</v>
-      </c>
-      <c r="G36">
-        <v>344112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37">
-        <v>327214</v>
-      </c>
-      <c r="D37">
-        <v>117232</v>
-      </c>
-      <c r="E37">
-        <v>114521</v>
-      </c>
-      <c r="F37">
-        <v>34778</v>
-      </c>
-      <c r="G37">
-        <v>49971</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38">
-        <v>207985</v>
-      </c>
-      <c r="D38">
-        <v>78945</v>
-      </c>
-      <c r="E38">
-        <v>72140</v>
-      </c>
-      <c r="F38">
-        <v>22878</v>
-      </c>
-      <c r="G38">
-        <v>33280</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39">
-        <v>113378</v>
-      </c>
-      <c r="D39">
-        <v>43553</v>
-      </c>
-      <c r="E39">
-        <v>38934</v>
-      </c>
-      <c r="F39">
-        <v>13705</v>
-      </c>
-      <c r="G39">
-        <v>20207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40">
-        <v>62839</v>
-      </c>
-      <c r="D40">
-        <v>23949</v>
-      </c>
-      <c r="E40">
-        <v>22544</v>
-      </c>
-      <c r="F40">
-        <v>5860</v>
-      </c>
-      <c r="G40">
-        <v>8499</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41">
-        <v>25007</v>
-      </c>
-      <c r="D41">
-        <v>9183</v>
-      </c>
-      <c r="E41">
-        <v>8159</v>
-      </c>
-      <c r="F41">
-        <v>2183</v>
-      </c>
-      <c r="G41">
-        <v>3191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42">
-        <v>79000</v>
-      </c>
-      <c r="D42">
-        <v>27890</v>
-      </c>
-      <c r="E42">
-        <v>27495</v>
-      </c>
-      <c r="F42">
-        <v>7190</v>
-      </c>
-      <c r="G42">
-        <v>10027</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43">
-        <v>46465</v>
-      </c>
-      <c r="D43">
-        <v>15202</v>
-      </c>
-      <c r="E43">
-        <v>17051</v>
-      </c>
-      <c r="F43">
-        <v>5632</v>
-      </c>
-      <c r="G43">
-        <v>8093</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44">
-        <v>23239</v>
-      </c>
-      <c r="D44">
-        <v>5811</v>
-      </c>
-      <c r="E44">
-        <v>8976</v>
-      </c>
-      <c r="F44">
-        <v>2568</v>
-      </c>
-      <c r="G44">
-        <v>3344</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45">
-        <v>22778</v>
-      </c>
-      <c r="D45">
-        <v>5766</v>
-      </c>
-      <c r="E45">
-        <v>8848</v>
-      </c>
-      <c r="F45">
-        <v>2487</v>
-      </c>
-      <c r="G45">
-        <v>3186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46">
-        <v>683036</v>
-      </c>
-      <c r="D46">
-        <v>219306</v>
-      </c>
-      <c r="E46">
-        <v>238985</v>
-      </c>
-      <c r="F46">
-        <v>99377</v>
-      </c>
-      <c r="G46">
-        <v>142935</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47">
-        <v>411577</v>
-      </c>
-      <c r="D47">
-        <v>146067</v>
-      </c>
-      <c r="E47">
-        <v>146131</v>
-      </c>
-      <c r="F47">
-        <v>54617</v>
-      </c>
-      <c r="G47">
-        <v>79759</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48">
-        <v>296878</v>
-      </c>
-      <c r="D48">
-        <v>105365</v>
-      </c>
-      <c r="E48">
-        <v>105279</v>
-      </c>
-      <c r="F48">
-        <v>41888</v>
-      </c>
-      <c r="G48">
-        <v>61604</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49">
-        <v>85269</v>
-      </c>
-      <c r="D49">
-        <v>31241</v>
-      </c>
-      <c r="E49">
-        <v>30991</v>
-      </c>
-      <c r="F49">
-        <v>9337</v>
-      </c>
-      <c r="G49">
-        <v>13063</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50">
-        <v>28702</v>
-      </c>
-      <c r="D50">
-        <v>10180</v>
-      </c>
-      <c r="E50">
-        <v>9472</v>
-      </c>
-      <c r="F50">
-        <v>2852</v>
-      </c>
-      <c r="G50">
-        <v>4094</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51">
-        <v>103294</v>
-      </c>
-      <c r="D51">
-        <v>34115</v>
-      </c>
-      <c r="E51">
-        <v>36582</v>
-      </c>
-      <c r="F51">
-        <v>11709</v>
-      </c>
-      <c r="G51">
-        <v>16717</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52">
-        <v>67519</v>
-      </c>
-      <c r="D52">
-        <v>20472</v>
-      </c>
-      <c r="E52">
-        <v>25050</v>
-      </c>
-      <c r="F52">
-        <v>9724</v>
-      </c>
-      <c r="G52">
-        <v>14124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53">
-        <v>27398</v>
-      </c>
-      <c r="D53">
-        <v>7011</v>
-      </c>
-      <c r="E53">
-        <v>10210</v>
-      </c>
-      <c r="F53">
-        <v>3261</v>
-      </c>
-      <c r="G53">
-        <v>4231</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54">
-        <v>26738</v>
-      </c>
-      <c r="D54">
-        <v>6941</v>
-      </c>
-      <c r="E54">
-        <v>10055</v>
-      </c>
-      <c r="F54">
-        <v>3109</v>
-      </c>
-      <c r="G54">
-        <v>3942</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55">
-        <v>13964</v>
-      </c>
-      <c r="D55">
-        <v>2480</v>
-      </c>
-      <c r="E55">
-        <v>1270</v>
-      </c>
-      <c r="F55">
-        <v>976</v>
-      </c>
-      <c r="G55">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56">
-        <v>68005</v>
-      </c>
-      <c r="D56">
-        <v>10381</v>
-      </c>
-      <c r="E56">
-        <v>7591</v>
-      </c>
-      <c r="F56">
-        <v>11733</v>
-      </c>
-      <c r="G56">
-        <v>16497</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57">
-        <v>9936</v>
-      </c>
-      <c r="D57">
-        <v>1018</v>
-      </c>
-      <c r="E57">
-        <v>2166</v>
-      </c>
-      <c r="F57">
-        <v>4014</v>
-      </c>
-      <c r="G57">
-        <v>6183</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58">
-        <v>63489</v>
-      </c>
-      <c r="D58">
-        <v>8810</v>
-      </c>
-      <c r="E58">
-        <v>9770</v>
-      </c>
-      <c r="F58">
-        <v>14412</v>
-      </c>
-      <c r="G58">
-        <v>27334</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59">
-        <v>16142</v>
-      </c>
-      <c r="D59">
-        <v>2782</v>
-      </c>
-      <c r="E59">
-        <v>1471</v>
-      </c>
-      <c r="F59">
-        <v>1178</v>
-      </c>
-      <c r="G59">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60">
-        <v>73834</v>
-      </c>
-      <c r="D60">
-        <v>11032</v>
-      </c>
-      <c r="E60">
-        <v>8438</v>
-      </c>
-      <c r="F60">
-        <v>13269</v>
-      </c>
-      <c r="G60">
-        <v>18973</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61">
-        <v>12232</v>
-      </c>
-      <c r="D61">
-        <v>1301</v>
-      </c>
-      <c r="E61">
-        <v>2817</v>
-      </c>
-      <c r="F61">
-        <v>4645</v>
-      </c>
-      <c r="G61">
-        <v>7369</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62">
-        <v>67041</v>
-      </c>
-      <c r="D62">
-        <v>9516</v>
-      </c>
-      <c r="E62">
-        <v>10387</v>
-      </c>
-      <c r="F62">
-        <v>15030</v>
-      </c>
-      <c r="G62">
-        <v>28410</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C63">
-        <v>7419</v>
-      </c>
-      <c r="D63">
-        <v>1265</v>
-      </c>
-      <c r="E63">
-        <v>2364</v>
-      </c>
-      <c r="F63">
-        <v>2256</v>
-      </c>
-      <c r="G63">
-        <v>3510</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C64">
-        <v>10403</v>
-      </c>
-      <c r="D64">
-        <v>5109</v>
-      </c>
-      <c r="E64">
-        <v>2442</v>
-      </c>
-      <c r="F64">
-        <v>167</v>
-      </c>
-      <c r="G64">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C65">
-        <v>11133</v>
-      </c>
-      <c r="D65">
-        <v>5413</v>
-      </c>
-      <c r="E65">
-        <v>2539</v>
-      </c>
-      <c r="F65">
-        <v>350</v>
-      </c>
-      <c r="G65">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66">
-        <v>4739</v>
-      </c>
-      <c r="D66">
-        <v>1246</v>
-      </c>
-      <c r="E66">
-        <v>2355</v>
-      </c>
-      <c r="F66">
-        <v>673</v>
-      </c>
-      <c r="G66">
-        <v>835</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q66"/>
-  <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection sqref="A1:C66"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2336,63 +696,63 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="I1" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="J1" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="K1" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="M1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="N1" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="O1" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="P1" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="Q1" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2442,10 +802,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -2495,10 +855,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C4">
         <v>13</v>
@@ -2548,10 +908,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C5">
         <v>14</v>
@@ -2601,10 +961,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -2654,10 +1014,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>17</v>
@@ -2707,10 +1067,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C8">
         <v>18</v>
@@ -2760,10 +1120,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C9">
         <v>19</v>
@@ -2813,10 +1173,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -2866,10 +1226,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>21</v>
@@ -2919,10 +1279,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C12">
         <v>22</v>
@@ -2972,10 +1332,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>23</v>
@@ -3025,10 +1385,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C14">
         <v>24</v>
@@ -3078,10 +1438,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C15">
         <v>25</v>
@@ -3131,10 +1491,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C16">
         <v>26</v>
@@ -3184,10 +1544,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C17">
         <v>27</v>
@@ -3237,10 +1597,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C18">
         <v>28</v>
@@ -3290,10 +1650,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C19">
         <v>29</v>
@@ -3343,10 +1703,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C20">
         <v>31</v>
@@ -3396,10 +1756,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C21">
         <v>32</v>
@@ -3449,10 +1809,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C22">
         <v>33</v>
@@ -3502,10 +1862,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C23">
         <v>34</v>
@@ -3555,10 +1915,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C24">
         <v>36</v>
@@ -3608,10 +1968,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C25">
         <v>37</v>
@@ -3661,10 +2021,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C26">
         <v>38</v>
@@ -3714,10 +2074,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C27">
         <v>39</v>
@@ -3767,10 +2127,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C28">
         <v>40</v>
@@ -3820,10 +2180,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C29">
         <v>41</v>
@@ -3873,10 +2233,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C30">
         <v>42</v>
@@ -3926,10 +2286,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C31">
         <v>43</v>
@@ -3979,10 +2339,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C32">
         <v>44</v>
@@ -4032,10 +2392,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C33">
         <v>45</v>
@@ -4085,10 +2445,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C34">
         <v>46</v>
@@ -4138,10 +2498,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C35">
         <v>47</v>
@@ -4191,10 +2551,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C36">
         <v>48</v>
@@ -4244,10 +2604,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C37">
         <v>50</v>
@@ -4297,10 +2657,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C38">
         <v>51</v>
@@ -4350,10 +2710,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C39">
         <v>52</v>
@@ -4403,10 +2763,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C40">
         <v>53</v>
@@ -4456,10 +2816,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C41">
         <v>54</v>
@@ -4509,10 +2869,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C42">
         <v>55</v>
@@ -4562,10 +2922,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C43">
         <v>56</v>
@@ -4615,10 +2975,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C44">
         <v>57</v>
@@ -4668,10 +3028,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C45">
         <v>58</v>
@@ -4721,10 +3081,10 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C46">
         <v>60</v>
@@ -4774,10 +3134,10 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C47">
         <v>61</v>
@@ -4827,10 +3187,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C48">
         <v>62</v>
@@ -4880,10 +3240,10 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C49">
         <v>63</v>
@@ -4933,10 +3293,10 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C50">
         <v>64</v>
@@ -4986,10 +3346,10 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C51">
         <v>65</v>
@@ -5039,10 +3399,10 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C52">
         <v>66</v>
@@ -5092,10 +3452,10 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C53">
         <v>67</v>
@@ -5145,10 +3505,10 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C54">
         <v>68</v>
@@ -5198,10 +3558,10 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C55">
         <v>72</v>
@@ -5251,10 +3611,10 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C56">
         <v>73</v>
@@ -5304,10 +3664,10 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C57">
         <v>75</v>
@@ -5357,10 +3717,10 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C58">
         <v>76</v>
@@ -5410,10 +3770,10 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C59">
         <v>80</v>
@@ -5463,10 +3823,10 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C60">
         <v>81</v>
@@ -5516,10 +3876,10 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C61">
         <v>83</v>
@@ -5569,10 +3929,10 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C62">
         <v>84</v>
@@ -5622,10 +3982,10 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C63">
         <v>85</v>
@@ -5675,10 +4035,10 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C64">
         <v>96</v>
@@ -5728,10 +4088,10 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C65">
         <v>176</v>
@@ -5781,10 +4141,10 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C66">
         <v>177</v>
@@ -5837,956 +4197,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>316515008</v>
-      </c>
-      <c r="D2">
-        <v>222464704</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <v>16235305</v>
-      </c>
-      <c r="D3">
-        <v>8769653</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>3303512</v>
-      </c>
-      <c r="D4">
-        <v>1434568</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>153234</v>
-      </c>
-      <c r="D5">
-        <v>64614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>263396</v>
-      </c>
-      <c r="D6">
-        <v>158556</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>3852099</v>
-      </c>
-      <c r="D7">
-        <v>2087394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>148275</v>
-      </c>
-      <c r="D8">
-        <v>94681</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>2717844</v>
-      </c>
-      <c r="D9">
-        <v>1713835</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>267009</v>
-      </c>
-      <c r="D10">
-        <v>140899</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>71451</v>
-      </c>
-      <c r="D11">
-        <v>24703</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12">
-        <v>779637</v>
-      </c>
-      <c r="D12">
-        <v>500155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>1460214</v>
-      </c>
-      <c r="D13">
-        <v>810630</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14">
-        <v>207999</v>
-      </c>
-      <c r="D14">
-        <v>124308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15">
-        <v>18803</v>
-      </c>
-      <c r="D15">
-        <v>5648</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16">
-        <v>414880</v>
-      </c>
-      <c r="D16">
-        <v>204726</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17">
-        <v>46036</v>
-      </c>
-      <c r="D17">
-        <v>20164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18">
-        <v>188673</v>
-      </c>
-      <c r="D18">
-        <v>104884</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19">
-        <v>1710547</v>
-      </c>
-      <c r="D19">
-        <v>1065739</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20">
-        <v>19167716</v>
-      </c>
-      <c r="D20">
-        <v>10138697</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21">
-        <v>3590279</v>
-      </c>
-      <c r="D21">
-        <v>1558594</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <v>164821</v>
-      </c>
-      <c r="D22">
-        <v>69825</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23">
-        <v>316640</v>
-      </c>
-      <c r="D23">
-        <v>176113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>4597905</v>
-      </c>
-      <c r="D24">
-        <v>2459584</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25">
-        <v>181029</v>
-      </c>
-      <c r="D25">
-        <v>109715</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26">
-        <v>3707082</v>
-      </c>
-      <c r="D26">
-        <v>2181775</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27">
-        <v>280410</v>
-      </c>
-      <c r="D27">
-        <v>144882</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28">
-        <v>108477</v>
-      </c>
-      <c r="D28">
-        <v>41617</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29">
-        <v>1388163</v>
-      </c>
-      <c r="D29">
-        <v>831898</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30">
-        <v>1792437</v>
-      </c>
-      <c r="D30">
-        <v>953489</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31">
-        <v>256416</v>
-      </c>
-      <c r="D31">
-        <v>137527</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32">
-        <v>28818</v>
-      </c>
-      <c r="D32">
-        <v>9973</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33">
-        <v>455005</v>
-      </c>
-      <c r="D33">
-        <v>222252</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34">
-        <v>52267</v>
-      </c>
-      <c r="D34">
-        <v>22161</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35">
-        <v>278281</v>
-      </c>
-      <c r="D35">
-        <v>142232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36">
-        <v>1928363</v>
-      </c>
-      <c r="D36">
-        <v>1163357</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37">
-        <v>546255</v>
-      </c>
-      <c r="D37">
-        <v>332580</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38">
-        <v>344487</v>
-      </c>
-      <c r="D38">
-        <v>232958</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39">
-        <v>174460</v>
-      </c>
-      <c r="D39">
-        <v>132370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40">
-        <v>109455</v>
-      </c>
-      <c r="D40">
-        <v>72519</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41">
-        <v>45453</v>
-      </c>
-      <c r="D41">
-        <v>20524</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42">
-        <v>138360</v>
-      </c>
-      <c r="D42">
-        <v>64647</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43">
-        <v>73088</v>
-      </c>
-      <c r="D43">
-        <v>54298</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44">
-        <v>34239</v>
-      </c>
-      <c r="D44">
-        <v>17449</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45">
-        <v>33468</v>
-      </c>
-      <c r="D45">
-        <v>17304</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46">
-        <v>1262434</v>
-      </c>
-      <c r="D46">
-        <v>748301</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47">
-        <v>783326</v>
-      </c>
-      <c r="D47">
-        <v>487743</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48">
-        <v>549858</v>
-      </c>
-      <c r="D48">
-        <v>360525</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49">
-        <v>182968</v>
-      </c>
-      <c r="D49">
-        <v>104560</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50">
-        <v>62458</v>
-      </c>
-      <c r="D50">
-        <v>26133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51">
-        <v>207128</v>
-      </c>
-      <c r="D51">
-        <v>95823</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52">
-        <v>130476</v>
-      </c>
-      <c r="D52">
-        <v>82128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53">
-        <v>43211</v>
-      </c>
-      <c r="D53">
-        <v>21654</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54">
-        <v>42110</v>
-      </c>
-      <c r="D54">
-        <v>21305</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55">
-        <v>21441</v>
-      </c>
-      <c r="D55">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56">
-        <v>126590</v>
-      </c>
-      <c r="D56">
-        <v>24852</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57">
-        <v>15919</v>
-      </c>
-      <c r="D57">
-        <v>3204</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58">
-        <v>103526</v>
-      </c>
-      <c r="D58">
-        <v>17630</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59">
-        <v>24875</v>
-      </c>
-      <c r="D59">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60">
-        <v>138426</v>
-      </c>
-      <c r="D60">
-        <v>29127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61">
-        <v>20546</v>
-      </c>
-      <c r="D61">
-        <v>5519</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62">
-        <v>111021</v>
-      </c>
-      <c r="D62">
-        <v>18931</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" t="s">
-        <v>43</v>
-      </c>
-      <c r="C63">
-        <v>11627</v>
-      </c>
-      <c r="D63">
-        <v>8300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" t="s">
-        <v>42</v>
-      </c>
-      <c r="C64">
-        <v>23444</v>
-      </c>
-      <c r="D64">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C65">
-        <v>26856</v>
-      </c>
-      <c r="D65">
-        <v>2597</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66">
-        <v>8957</v>
-      </c>
-      <c r="D66">
-        <v>3664</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6796,30 +4212,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>316515008</v>
@@ -6836,10 +4252,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>16235305</v>
@@ -6856,10 +4272,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>3303512</v>
@@ -6876,10 +4292,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
       </c>
       <c r="C5">
         <v>153234</v>
@@ -6896,10 +4312,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>263396</v>
@@ -6916,10 +4332,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="C7">
         <v>3693977</v>
@@ -6936,10 +4352,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>148275</v>
@@ -6956,10 +4372,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>2717844</v>
@@ -6976,10 +4392,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>267009</v>
@@ -6996,10 +4412,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>71451</v>
@@ -7016,10 +4432,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>779637</v>
@@ -7036,10 +4452,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>1460214</v>
@@ -7056,10 +4472,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>207999</v>
@@ -7076,10 +4492,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>18803</v>
@@ -7096,10 +4512,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>414880</v>
@@ -7116,10 +4532,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>46036</v>
@@ -7136,10 +4552,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>188673</v>
@@ -7156,10 +4572,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>1710547</v>
@@ -7176,10 +4592,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>19167716</v>
@@ -7196,10 +4612,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>3590279</v>
@@ -7216,10 +4632,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>164821</v>
@@ -7236,10 +4652,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>316640</v>
@@ -7256,10 +4672,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>4428363</v>
@@ -7276,10 +4692,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>181029</v>
@@ -7296,10 +4712,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>3707082</v>
@@ -7316,10 +4732,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>280410</v>
@@ -7336,10 +4752,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>108477</v>
@@ -7356,10 +4772,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <v>1388163</v>
@@ -7376,10 +4792,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>1792437</v>
@@ -7396,10 +4812,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="C31">
         <v>256416</v>
@@ -7416,10 +4832,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>28818</v>
@@ -7436,10 +4852,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <v>455005</v>
@@ -7456,10 +4872,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <v>52267</v>
@@ -7476,10 +4892,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>278281</v>
@@ -7496,10 +4912,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="C36">
         <v>1928363</v>
@@ -7516,10 +4932,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C37">
         <v>546255</v>
@@ -7536,10 +4952,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="C38">
         <v>1262434</v>
@@ -7556,10 +4972,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="C39">
         <v>21441</v>
@@ -7576,10 +4992,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="C40">
         <v>126590</v>
@@ -7596,10 +5012,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="C41">
         <v>15919</v>
@@ -7616,10 +5032,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C42">
         <v>103526</v>
@@ -7636,10 +5052,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C43">
         <v>24875</v>
@@ -7656,10 +5072,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="C44">
         <v>138426</v>
@@ -7676,10 +5092,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C45">
         <v>20546</v>
@@ -7696,10 +5112,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C46">
         <v>111021</v>
@@ -7716,10 +5132,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C47">
         <v>11627</v>
@@ -7736,10 +5152,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C48">
         <v>344487</v>
@@ -7756,10 +5172,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C49">
         <v>174460</v>
@@ -7776,10 +5192,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="C50">
         <v>109455</v>
@@ -7796,10 +5212,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="C51">
         <v>45453</v>
@@ -7816,10 +5232,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="C52">
         <v>138360</v>
@@ -7836,10 +5252,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="C53">
         <v>73088</v>
@@ -7856,10 +5272,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="C54">
         <v>34239</v>
@@ -7876,10 +5292,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="C55">
         <v>33468</v>
@@ -7896,10 +5312,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="C56">
         <v>783326</v>
@@ -7916,10 +5332,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="C57">
         <v>549858</v>
@@ -7936,10 +5352,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="C58">
         <v>182968</v>
@@ -7956,10 +5372,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="C59">
         <v>62458</v>
@@ -7976,10 +5392,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="C60">
         <v>207128</v>
@@ -7996,10 +5412,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="C61">
         <v>130476</v>
@@ -8016,10 +5432,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="C62">
         <v>43211</v>
@@ -8036,10 +5452,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="C63">
         <v>42110</v>
@@ -8056,10 +5472,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="C64">
         <v>23444</v>
@@ -8076,10 +5492,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="C65">
         <v>26856</v>
@@ -8096,10 +5512,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="C66">
         <v>8957</v>
@@ -8112,6 +5528,2976 @@
       </c>
       <c r="F66">
         <v>1.6470028640469536E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="6" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>296603008</v>
+      </c>
+      <c r="E2">
+        <v>3785</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>62431448</v>
+      </c>
+      <c r="H2">
+        <v>207411</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>25410756</v>
+      </c>
+      <c r="K2">
+        <v>226707</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.4070185124874115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>37099648</v>
+      </c>
+      <c r="E3">
+        <v>21781</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>3236722</v>
+      </c>
+      <c r="H3">
+        <v>49223</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1097868</v>
+      </c>
+      <c r="K3">
+        <v>41944</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.33919131755828857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>2381282</v>
+      </c>
+      <c r="E4">
+        <v>13464</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>640132</v>
+      </c>
+      <c r="H4">
+        <v>16468</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>176558</v>
+      </c>
+      <c r="K4">
+        <v>12633</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.27581498026847839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>15329363</v>
+      </c>
+      <c r="E5">
+        <v>17625</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>11624712</v>
+      </c>
+      <c r="H5">
+        <v>60976</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>5331938</v>
+      </c>
+      <c r="K5">
+        <v>69765</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.45867270231246948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>3042690</v>
+      </c>
+      <c r="E6">
+        <v>16255</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2376630</v>
+      </c>
+      <c r="H6">
+        <v>33768</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>630261</v>
+      </c>
+      <c r="K6">
+        <v>25556</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.26519104838371277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>141113</v>
+      </c>
+      <c r="E7">
+        <v>4995</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>130318</v>
+      </c>
+      <c r="H7">
+        <v>7141</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>62687</v>
+      </c>
+      <c r="K7">
+        <v>6409</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.48103103041648865</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>248000</v>
+      </c>
+      <c r="E8">
+        <v>7805</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>194079</v>
+      </c>
+      <c r="H8">
+        <v>8860</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>101877</v>
+      </c>
+      <c r="K8">
+        <v>7425</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.52492541074752808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>3682935</v>
+      </c>
+      <c r="E9">
+        <v>18857</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2989190</v>
+      </c>
+      <c r="H9">
+        <v>23965</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1688986</v>
+      </c>
+      <c r="K9">
+        <v>29636</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.56503134965896606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>3531188</v>
+      </c>
+      <c r="E10">
+        <v>17903</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2859155</v>
+      </c>
+      <c r="H10">
+        <v>22864</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1625048</v>
+      </c>
+      <c r="K10">
+        <v>29022</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0.56836652755737305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>142560</v>
+      </c>
+      <c r="E11">
+        <v>4013</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>122490</v>
+      </c>
+      <c r="H11">
+        <v>5486</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>60056</v>
+      </c>
+      <c r="K11">
+        <v>5306</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0.49029308557510376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>2609676</v>
+      </c>
+      <c r="E12">
+        <v>17239</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1725020</v>
+      </c>
+      <c r="H12">
+        <v>20487</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>584495</v>
+      </c>
+      <c r="K12">
+        <v>16968</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0.33883374929428101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>238256</v>
+      </c>
+      <c r="E13">
+        <v>5934</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>210173</v>
+      </c>
+      <c r="H13">
+        <v>7318</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>88833</v>
+      </c>
+      <c r="K13">
+        <v>6548</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0.42266610264778137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>67708</v>
+      </c>
+      <c r="E14">
+        <v>2668</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>53359</v>
+      </c>
+      <c r="H14">
+        <v>4685</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>24043</v>
+      </c>
+      <c r="K14">
+        <v>4084</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0.45058941841125488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>757949</v>
+      </c>
+      <c r="E15">
+        <v>9340</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>330417</v>
+      </c>
+      <c r="H15">
+        <v>9791</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>175304</v>
+      </c>
+      <c r="K15">
+        <v>9333</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0.53055381774902344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>1399663</v>
+      </c>
+      <c r="E16">
+        <v>12451</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1076492</v>
+      </c>
+      <c r="H16">
+        <v>17092</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>600928</v>
+      </c>
+      <c r="K16">
+        <v>16912</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0.5582280158996582</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>197113</v>
+      </c>
+      <c r="E17">
+        <v>4858</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>155703</v>
+      </c>
+      <c r="H17">
+        <v>6482</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>76340</v>
+      </c>
+      <c r="K17">
+        <v>6512</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0.49029242992401123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>18122</v>
+      </c>
+      <c r="E18">
+        <v>1435</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>13506</v>
+      </c>
+      <c r="H18">
+        <v>2337</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>5548</v>
+      </c>
+      <c r="K18">
+        <v>2311</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.4107804000377655</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>381823</v>
+      </c>
+      <c r="E19">
+        <v>10558</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>328328</v>
+      </c>
+      <c r="H19">
+        <v>12893</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>106476</v>
+      </c>
+      <c r="K19">
+        <v>8293</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0.32429766654968262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>43612</v>
+      </c>
+      <c r="E20">
+        <v>2575</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>31496</v>
+      </c>
+      <c r="H20">
+        <v>3916</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>9654</v>
+      </c>
+      <c r="K20">
+        <v>3002</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.30651512742042542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>183236</v>
+      </c>
+      <c r="E21">
+        <v>4550</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>137048</v>
+      </c>
+      <c r="H21">
+        <v>6120</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>79069</v>
+      </c>
+      <c r="K21">
+        <v>6656</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0.57694381475448608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>1625861</v>
+      </c>
+      <c r="E22">
+        <v>17094</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1404597</v>
+      </c>
+      <c r="H22">
+        <v>21002</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>842230</v>
+      </c>
+      <c r="K22">
+        <v>20667</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0.59962397813796997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>17796990</v>
+      </c>
+      <c r="E23">
+        <v>16644</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>12237909</v>
+      </c>
+      <c r="H23">
+        <v>66653</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>5520233</v>
+      </c>
+      <c r="K23">
+        <v>74432</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0.45107647776603699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <v>3282037</v>
+      </c>
+      <c r="E24">
+        <v>16279</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2473520</v>
+      </c>
+      <c r="H24">
+        <v>35118</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>665915</v>
+      </c>
+      <c r="K24">
+        <v>26823</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0.26921755075454712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>151184</v>
+      </c>
+      <c r="E25">
+        <v>5102</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>138912</v>
+      </c>
+      <c r="H25">
+        <v>7252</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>66727</v>
+      </c>
+      <c r="K25">
+        <v>6438</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0.48035445809364319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>288495</v>
+      </c>
+      <c r="E26">
+        <v>7724</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>212826</v>
+      </c>
+      <c r="H26">
+        <v>9039</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>110424</v>
+      </c>
+      <c r="K26">
+        <v>7600</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0.51884639263153076</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>4311173</v>
+      </c>
+      <c r="E27">
+        <v>22990</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>3162484</v>
+      </c>
+      <c r="H27">
+        <v>26075</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1747857</v>
+      </c>
+      <c r="K27">
+        <v>30738</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0.55268484354019165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28">
+        <v>36</v>
+      </c>
+      <c r="D28">
+        <v>4152351</v>
+      </c>
+      <c r="E28">
+        <v>21796</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>3033573</v>
+      </c>
+      <c r="H28">
+        <v>24791</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1685760</v>
+      </c>
+      <c r="K28">
+        <v>30227</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0.55570113658905029</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29">
+        <v>37</v>
+      </c>
+      <c r="D29">
+        <v>169347</v>
+      </c>
+      <c r="E29">
+        <v>4515</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>137051</v>
+      </c>
+      <c r="H29">
+        <v>6146</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>66166</v>
+      </c>
+      <c r="K29">
+        <v>5558</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0.48278379440307617</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30">
+        <v>38</v>
+      </c>
+      <c r="D30">
+        <v>3435458</v>
+      </c>
+      <c r="E30">
+        <v>22083</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1845772</v>
+      </c>
+      <c r="H30">
+        <v>22069</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>611222</v>
+      </c>
+      <c r="K30">
+        <v>18208</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0.33114707469940186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31">
+        <v>39</v>
+      </c>
+      <c r="D31">
+        <v>248086</v>
+      </c>
+      <c r="E31">
+        <v>6198</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>215597</v>
+      </c>
+      <c r="H31">
+        <v>7619</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>91098</v>
+      </c>
+      <c r="K31">
+        <v>6657</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0.42253834009170532</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32">
+        <v>40</v>
+      </c>
+      <c r="D32">
+        <v>99502</v>
+      </c>
+      <c r="E32">
+        <v>3473</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>64438</v>
+      </c>
+      <c r="H32">
+        <v>5388</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>27099</v>
+      </c>
+      <c r="K32">
+        <v>4443</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0.42054378986358643</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33">
+        <v>41</v>
+      </c>
+      <c r="D33">
+        <v>1287674</v>
+      </c>
+      <c r="E33">
+        <v>14235</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>412506</v>
+      </c>
+      <c r="H33">
+        <v>12293</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>190836</v>
+      </c>
+      <c r="K33">
+        <v>10406</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0.46262601017951965</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34">
+        <v>42</v>
+      </c>
+      <c r="D34">
+        <v>1665874</v>
+      </c>
+      <c r="E34">
+        <v>12916</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>1113216</v>
+      </c>
+      <c r="H34">
+        <v>17841</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>609465</v>
+      </c>
+      <c r="K34">
+        <v>17263</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0.54748135805130005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35">
+        <v>43</v>
+      </c>
+      <c r="D35">
+        <v>233844</v>
+      </c>
+      <c r="E35">
+        <v>5264</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>169200</v>
+      </c>
+      <c r="H35">
+        <v>6840</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>80609</v>
+      </c>
+      <c r="K35">
+        <v>6774</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0.47641253471374512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36">
+        <v>44</v>
+      </c>
+      <c r="D36">
+        <v>27082</v>
+      </c>
+      <c r="E36">
+        <v>1774</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>18016</v>
+      </c>
+      <c r="H36">
+        <v>2558</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>7178</v>
+      </c>
+      <c r="K36">
+        <v>2520</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.39842361211776733</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37">
+        <v>45</v>
+      </c>
+      <c r="D37">
+        <v>415387</v>
+      </c>
+      <c r="E37">
+        <v>10456</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>345669</v>
+      </c>
+      <c r="H37">
+        <v>13535</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>111815</v>
+      </c>
+      <c r="K37">
+        <v>8730</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0.32347419857978821</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38">
+        <v>46</v>
+      </c>
+      <c r="D38">
+        <v>48602</v>
+      </c>
+      <c r="E38">
+        <v>2713</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>33329</v>
+      </c>
+      <c r="H38">
+        <v>4137</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>10148</v>
+      </c>
+      <c r="K38">
+        <v>3074</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0.30447956919670105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39">
+        <v>47</v>
+      </c>
+      <c r="D39">
+        <v>255884</v>
+      </c>
+      <c r="E39">
+        <v>4881</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>154488</v>
+      </c>
+      <c r="H39">
+        <v>6632</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>84332</v>
+      </c>
+      <c r="K39">
+        <v>6838</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0.54588061571121216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40">
+        <v>48</v>
+      </c>
+      <c r="D40">
+        <v>1804309</v>
+      </c>
+      <c r="E40">
+        <v>17635</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1484104</v>
+      </c>
+      <c r="H40">
+        <v>22196</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>876114</v>
+      </c>
+      <c r="K40">
+        <v>21516</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0.59033197164535522</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>505857</v>
+      </c>
+      <c r="E41">
+        <v>4027</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>215213</v>
+      </c>
+      <c r="H41">
+        <v>10928</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>68442</v>
+      </c>
+      <c r="K41">
+        <v>8761</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0.3180198073387146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42">
+        <v>51</v>
+      </c>
+      <c r="D42">
+        <v>319549</v>
+      </c>
+      <c r="E42">
+        <v>4500</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>108656</v>
+      </c>
+      <c r="H42">
+        <v>6893</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>27675</v>
+      </c>
+      <c r="K42">
+        <v>4662</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0.25470292568206787</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43">
+        <v>52</v>
+      </c>
+      <c r="D43">
+        <v>163751</v>
+      </c>
+      <c r="E43">
+        <v>4186</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>22241</v>
+      </c>
+      <c r="H43">
+        <v>3196</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>4325</v>
+      </c>
+      <c r="K43">
+        <v>2035</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0.1944606751203537</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44">
+        <v>53</v>
+      </c>
+      <c r="D44">
+        <v>101385</v>
+      </c>
+      <c r="E44">
+        <v>3530</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>53574</v>
+      </c>
+      <c r="H44">
+        <v>4315</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>14030</v>
+      </c>
+      <c r="K44">
+        <v>3218</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0.26188075542449951</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45">
+        <v>54</v>
+      </c>
+      <c r="D45">
+        <v>41460</v>
+      </c>
+      <c r="E45">
+        <v>2705</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>28265</v>
+      </c>
+      <c r="H45">
+        <v>3330</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>8128</v>
+      </c>
+      <c r="K45">
+        <v>2498</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0.28756412863731384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46">
+        <v>55</v>
+      </c>
+      <c r="D46">
+        <v>126870</v>
+      </c>
+      <c r="E46">
+        <v>3441</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>67912</v>
+      </c>
+      <c r="H46">
+        <v>5818</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>28956</v>
+      </c>
+      <c r="K46">
+        <v>5584</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0.42637529969215393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47">
+        <v>56</v>
+      </c>
+      <c r="D47">
+        <v>69354</v>
+      </c>
+      <c r="E47">
+        <v>2580</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>21745</v>
+      </c>
+      <c r="H47">
+        <v>3050</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>4987</v>
+      </c>
+      <c r="K47">
+        <v>2228</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0.2293400764465332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48">
+        <v>57</v>
+      </c>
+      <c r="D48">
+        <v>32575</v>
+      </c>
+      <c r="E48">
+        <v>1885</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>27179</v>
+      </c>
+      <c r="H48">
+        <v>3604</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>8111</v>
+      </c>
+      <c r="K48">
+        <v>3104</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>0.29842892289161682</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49">
+        <v>58</v>
+      </c>
+      <c r="D49">
+        <v>31804</v>
+      </c>
+      <c r="E49">
+        <v>1864</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>26695</v>
+      </c>
+      <c r="H49">
+        <v>3566</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>7895</v>
+      </c>
+      <c r="K49">
+        <v>3075</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0.2957482635974884</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50">
+        <v>60</v>
+      </c>
+      <c r="D50">
+        <v>1138468</v>
+      </c>
+      <c r="E50">
+        <v>8791</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>340912</v>
+      </c>
+      <c r="H50">
+        <v>14525</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>105103</v>
+      </c>
+      <c r="K50">
+        <v>11394</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0.30829951167106628</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51">
+        <v>61</v>
+      </c>
+      <c r="D51">
+        <v>701537</v>
+      </c>
+      <c r="E51">
+        <v>6584</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>147610</v>
+      </c>
+      <c r="H51">
+        <v>8439</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>35575</v>
+      </c>
+      <c r="K51">
+        <v>5506</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0.24100670218467712</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52">
+        <v>62</v>
+      </c>
+      <c r="D52">
+        <v>494618</v>
+      </c>
+      <c r="E52">
+        <v>7238</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>51982</v>
+      </c>
+      <c r="H52">
+        <v>5098</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>10391</v>
+      </c>
+      <c r="K52">
+        <v>3017</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>0.19989611208438873</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>63</v>
+      </c>
+      <c r="D53">
+        <v>160428</v>
+      </c>
+      <c r="E53">
+        <v>4453</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>64873</v>
+      </c>
+      <c r="H53">
+        <v>5229</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>16668</v>
+      </c>
+      <c r="K53">
+        <v>3614</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0.25693276524543762</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54">
+        <v>64</v>
+      </c>
+      <c r="D54">
+        <v>54045</v>
+      </c>
+      <c r="E54">
+        <v>2671</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>31462</v>
+      </c>
+      <c r="H54">
+        <v>3672</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>8742</v>
+      </c>
+      <c r="K54">
+        <v>2535</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0.27785900235176086</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55">
+        <v>65</v>
+      </c>
+      <c r="D55">
+        <v>183819</v>
+      </c>
+      <c r="E55">
+        <v>3718</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>77137</v>
+      </c>
+      <c r="H55">
+        <v>6231</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>31703</v>
+      </c>
+      <c r="K55">
+        <v>5901</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0.41099601984024048</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56">
+        <v>66</v>
+      </c>
+      <c r="D56">
+        <v>117087</v>
+      </c>
+      <c r="E56">
+        <v>3419</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>27538</v>
+      </c>
+      <c r="H56">
+        <v>3546</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>6556</v>
+      </c>
+      <c r="K56">
+        <v>2594</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>0.2380710244178772</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57">
+        <v>67</v>
+      </c>
+      <c r="D57">
+        <v>40422</v>
+      </c>
+      <c r="E57">
+        <v>2059</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>31002</v>
+      </c>
+      <c r="H57">
+        <v>3709</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>9309</v>
+      </c>
+      <c r="K57">
+        <v>3189</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>0.30027094483375549</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58">
+        <v>68</v>
+      </c>
+      <c r="D58">
+        <v>39367</v>
+      </c>
+      <c r="E58">
+        <v>2049</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>30436</v>
+      </c>
+      <c r="H58">
+        <v>3673</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>9061</v>
+      </c>
+      <c r="K58">
+        <v>3174</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>0.29770666360855103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59">
+        <v>72</v>
+      </c>
+      <c r="D59">
+        <v>19240</v>
+      </c>
+      <c r="E59">
+        <v>2189</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>18876</v>
+      </c>
+      <c r="H59">
+        <v>3090</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>15002</v>
+      </c>
+      <c r="K59">
+        <v>4187</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>0.79476583003997803</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60">
+        <v>73</v>
+      </c>
+      <c r="D60">
+        <v>111255</v>
+      </c>
+      <c r="E60">
+        <v>4884</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>104706</v>
+      </c>
+      <c r="H60">
+        <v>6588</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>80668</v>
+      </c>
+      <c r="K60">
+        <v>7952</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0.77042382955551147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61">
+        <v>75</v>
+      </c>
+      <c r="D61">
+        <v>14355</v>
+      </c>
+      <c r="E61">
+        <v>1468</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>12241</v>
+      </c>
+      <c r="H61">
+        <v>2363</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>6208</v>
+      </c>
+      <c r="K61">
+        <v>2408</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>0.50714808702468872</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62">
+        <v>76</v>
+      </c>
+      <c r="D62">
+        <v>94774</v>
+      </c>
+      <c r="E62">
+        <v>3973</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>89038</v>
+      </c>
+      <c r="H62">
+        <v>5549</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>48963</v>
+      </c>
+      <c r="K62">
+        <v>5948</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0.5499112606048584</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63">
+        <v>80</v>
+      </c>
+      <c r="D63">
+        <v>22391</v>
+      </c>
+      <c r="E63">
+        <v>2194</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>21961</v>
+      </c>
+      <c r="H63">
+        <v>3161</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>17657</v>
+      </c>
+      <c r="K63">
+        <v>4284</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0.80401623249053955</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64">
+        <v>81</v>
+      </c>
+      <c r="D64">
+        <v>121604</v>
+      </c>
+      <c r="E64">
+        <v>5136</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>111625</v>
+      </c>
+      <c r="H64">
+        <v>6835</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>85608</v>
+      </c>
+      <c r="K64">
+        <v>8233</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0.76692497730255127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65">
+        <v>83</v>
+      </c>
+      <c r="D65">
+        <v>18090</v>
+      </c>
+      <c r="E65">
+        <v>1712</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>13512</v>
+      </c>
+      <c r="H65">
+        <v>2572</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>6587</v>
+      </c>
+      <c r="K65">
+        <v>2509</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0.48749259114265442</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66">
+        <v>84</v>
+      </c>
+      <c r="D66">
+        <v>101261</v>
+      </c>
+      <c r="E66">
+        <v>4218</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>94034</v>
+      </c>
+      <c r="H66">
+        <v>5804</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>52127</v>
+      </c>
+      <c r="K66">
+        <v>6047</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0.55434203147888184</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67">
+        <v>85</v>
+      </c>
+      <c r="D67">
+        <v>10798</v>
+      </c>
+      <c r="E67">
+        <v>834</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1067</v>
+      </c>
+      <c r="H67">
+        <v>577</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>329</v>
+      </c>
+      <c r="K67">
+        <v>1053</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>0.30834114551544189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68">
+        <v>96</v>
+      </c>
+      <c r="D68">
+        <v>20395</v>
+      </c>
+      <c r="E68">
+        <v>1782</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>17174</v>
+      </c>
+      <c r="H68">
+        <v>2219</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>8753</v>
+      </c>
+      <c r="K68">
+        <v>2934</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>0.50966578722000122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69">
+        <v>176</v>
+      </c>
+      <c r="D69">
+        <v>23145</v>
+      </c>
+      <c r="E69">
+        <v>2109</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>18557</v>
+      </c>
+      <c r="H69">
+        <v>2454</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>9116</v>
+      </c>
+      <c r="K69">
+        <v>2942</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>0.49124318361282349</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70">
+        <v>177</v>
+      </c>
+      <c r="D70">
+        <v>8000</v>
+      </c>
+      <c r="E70">
+        <v>1009</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>4639</v>
+      </c>
+      <c r="H70">
+        <v>1215</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1570</v>
+      </c>
+      <c r="K70">
+        <v>1331</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>0.33843499422073364</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71">
+        <v>400</v>
+      </c>
+      <c r="D71">
+        <v>49101316</v>
+      </c>
+      <c r="E71">
+        <v>3063</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>36194792</v>
+      </c>
+      <c r="H71">
+        <v>105548</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>15846293</v>
+      </c>
+      <c r="K71">
+        <v>125336</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0.4378058910369873</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72">
+        <v>451</v>
+      </c>
+      <c r="D72">
+        <v>187320464</v>
+      </c>
+      <c r="E72">
+        <v>7407</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>10423519</v>
+      </c>
+      <c r="H72">
+        <v>84207</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>2952463</v>
+      </c>
+      <c r="K72">
+        <v>63218</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0.2832501232624054</v>
       </c>
     </row>
   </sheetData>

--- a/national_dta.xlsx
+++ b/national_dta.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-33600" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="edu" sheetId="5" r:id="rId1"/>
     <sheet name="cvap" sheetId="4" r:id="rId2"/>
     <sheet name="lep" sheetId="6" r:id="rId3"/>
+    <sheet name="nativity" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="112">
   <si>
     <t>total_pop</t>
   </si>
@@ -344,13 +345,34 @@
   </si>
   <si>
     <t>checking_other_lang</t>
+  </si>
+  <si>
+    <t>est_tot_pop</t>
+  </si>
+  <si>
+    <t>moe_tot_pop</t>
+  </si>
+  <si>
+    <t>checking_tot_pop</t>
+  </si>
+  <si>
+    <t>est_foreign</t>
+  </si>
+  <si>
+    <t>moe_foreign</t>
+  </si>
+  <si>
+    <t>checking_foreign</t>
+  </si>
+  <si>
+    <t>pct_foreign</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -372,6 +394,11 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -399,8 +426,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5539,7 +5567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -8503,4 +8531,2323 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>316515008</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>41717420</v>
+      </c>
+      <c r="H2" s="1">
+        <v>104288</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.13180235000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>39908096</v>
+      </c>
+      <c r="E3" s="1">
+        <v>26702</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3599684</v>
+      </c>
+      <c r="H3" s="1">
+        <v>21590</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>9.0199344000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2569170</v>
+      </c>
+      <c r="E4" s="1">
+        <v>14914</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>151490</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4399</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5.8964569000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>16235305</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20725</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10796569</v>
+      </c>
+      <c r="H5" s="1">
+        <v>18202</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.66500562399999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3303512</v>
+      </c>
+      <c r="E6" s="1">
+        <v>17090</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2356160</v>
+      </c>
+      <c r="H6" s="1">
+        <v>12811</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.71322882200000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>153234</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5479</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>114126</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4372</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.74478250700000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="1">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>263396</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8409</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>154178</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5035</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.58534675800000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="1">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3852099</v>
+      </c>
+      <c r="E9" s="1">
+        <v>19831</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2672930</v>
+      </c>
+      <c r="H9" s="1">
+        <v>13916</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.69388920099999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="1">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3693977</v>
+      </c>
+      <c r="E10" s="1">
+        <v>18855</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2560943</v>
+      </c>
+      <c r="H10" s="1">
+        <v>13675</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.69327527300000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="1">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1">
+        <v>148275</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4247</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>105500</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3198</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.71151578400000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="1">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2717844</v>
+      </c>
+      <c r="E12" s="1">
+        <v>17934</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1787850</v>
+      </c>
+      <c r="H12" s="1">
+        <v>13581</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.65781921099999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1">
+        <v>267009</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6734</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>104775</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3093</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.39240249999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1">
+        <v>71451</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2920</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>55213</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2261</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.77273935100000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="1">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1">
+        <v>779637</v>
+      </c>
+      <c r="E15" s="1">
+        <v>9694</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>313689</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5833</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.40235263100000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1460214</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13339</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1062693</v>
+      </c>
+      <c r="H16" s="1">
+        <v>10158</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.72776526200000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="1">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1">
+        <v>207999</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4997</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>120363</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3053</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.57867103799999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="1">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1">
+        <v>18803</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1544</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>15706</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1292</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.83529222000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="1">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1">
+        <v>414880</v>
+      </c>
+      <c r="E19" s="1">
+        <v>11430</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>274990</v>
+      </c>
+      <c r="H19" s="1">
+        <v>7509</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.662818193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1">
+        <v>46036</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2724</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>35733</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2214</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.77619689700000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="1">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1">
+        <v>188673</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4784</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>142997</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3875</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.75790917899999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="1">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1710547</v>
+      </c>
+      <c r="E22" s="1">
+        <v>18780</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1155190</v>
+      </c>
+      <c r="H22" s="1">
+        <v>12122</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.67533367899999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1">
+        <v>19167716</v>
+      </c>
+      <c r="E23" s="1">
+        <v>19485</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>11255240</v>
+      </c>
+      <c r="H23" s="1">
+        <v>17891</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.58719778099999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="1">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3590279</v>
+      </c>
+      <c r="E24" s="1">
+        <v>16777</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2452196</v>
+      </c>
+      <c r="H24" s="1">
+        <v>13073</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.68300986299999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="1">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1">
+        <v>164821</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5618</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>120769</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4439</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.73272824299999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="1">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1">
+        <v>316640</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8596</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>166018</v>
+      </c>
+      <c r="H26" s="1">
+        <v>4976</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.52431154300000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="1">
+        <v>35</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4597905</v>
+      </c>
+      <c r="E27" s="1">
+        <v>24921</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2787690</v>
+      </c>
+      <c r="H27" s="1">
+        <v>14728</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.60629570499999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="1">
+        <v>36</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4428363</v>
+      </c>
+      <c r="E28" s="1">
+        <v>23401</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2678781</v>
+      </c>
+      <c r="H28" s="1">
+        <v>14464</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.60491448599999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="1">
+        <v>37</v>
+      </c>
+      <c r="D29" s="1">
+        <v>181029</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4898</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>115720</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3328</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.63923460200000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="1">
+        <v>38</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3707082</v>
+      </c>
+      <c r="E30" s="1">
+        <v>24374</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1875044</v>
+      </c>
+      <c r="H30" s="1">
+        <v>13593</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.50580054500000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="1">
+        <v>39</v>
+      </c>
+      <c r="D31" s="1">
+        <v>280410</v>
+      </c>
+      <c r="E31" s="1">
+        <v>6971</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>107630</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3267</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.38383081600000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="1">
+        <v>40</v>
+      </c>
+      <c r="D32" s="1">
+        <v>108477</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3749</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>66041</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2498</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.60880184199999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="1">
+        <v>41</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1388163</v>
+      </c>
+      <c r="E33" s="1">
+        <v>15805</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>341479</v>
+      </c>
+      <c r="H33" s="1">
+        <v>6224</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.24599345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="1">
+        <v>42</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1792437</v>
+      </c>
+      <c r="E34" s="1">
+        <v>14297</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1081982</v>
+      </c>
+      <c r="H34" s="1">
+        <v>10187</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.60363739699999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43</v>
+      </c>
+      <c r="D35" s="1">
+        <v>256416</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5432</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>126666</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3210</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.49398633800000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44</v>
+      </c>
+      <c r="D36" s="1">
+        <v>28818</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1890</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>20332</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1461</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.70553124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45</v>
+      </c>
+      <c r="D37" s="1">
+        <v>455005</v>
+      </c>
+      <c r="E37" s="1">
+        <v>11349</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>287193</v>
+      </c>
+      <c r="H37" s="1">
+        <v>7562</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.63118648499999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="1">
+        <v>46</v>
+      </c>
+      <c r="D38" s="1">
+        <v>52267</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2925</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>37855</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2324</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.72426193999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="1">
+        <v>47</v>
+      </c>
+      <c r="D39" s="1">
+        <v>278281</v>
+      </c>
+      <c r="E39" s="1">
+        <v>5520</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>153140</v>
+      </c>
+      <c r="H39" s="1">
+        <v>3723</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.550307035</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="1">
+        <v>48</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1928363</v>
+      </c>
+      <c r="E40" s="1">
+        <v>19234</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1204976</v>
+      </c>
+      <c r="H40" s="1">
+        <v>12576</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.62486988300000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="1">
+        <v>50</v>
+      </c>
+      <c r="D41" s="1">
+        <v>546255</v>
+      </c>
+      <c r="E41" s="1">
+        <v>4552</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>115677</v>
+      </c>
+      <c r="H41" s="1">
+        <v>3289</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.21176374000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="1">
+        <v>51</v>
+      </c>
+      <c r="D42" s="1">
+        <v>344487</v>
+      </c>
+      <c r="E42" s="1">
+        <v>4839</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>38547</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1693</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.11189681999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="1">
+        <v>52</v>
+      </c>
+      <c r="D43" s="1">
+        <v>174460</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4519</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>4167</v>
+      </c>
+      <c r="H43" s="1">
+        <v>646</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>2.3885131E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="1">
+        <v>53</v>
+      </c>
+      <c r="D44" s="1">
+        <v>109455</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3835</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>13274</v>
+      </c>
+      <c r="H44" s="1">
+        <v>977</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.121273585</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="1">
+        <v>54</v>
+      </c>
+      <c r="D45" s="1">
+        <v>45453</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2981</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>18652</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1358</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.41035795200000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="1">
+        <v>55</v>
+      </c>
+      <c r="D46" s="1">
+        <v>138360</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3689</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>44931</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2309</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.32473981400000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="1">
+        <v>56</v>
+      </c>
+      <c r="D47" s="1">
+        <v>73088</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2797</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>4874</v>
+      </c>
+      <c r="H47" s="1">
+        <v>674</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>6.6686734999999997E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="1">
+        <v>57</v>
+      </c>
+      <c r="D48" s="1">
+        <v>34239</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1993</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>23816</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1436</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.69558107899999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="1">
+        <v>58</v>
+      </c>
+      <c r="D49" s="1">
+        <v>33468</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1972</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>23221</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1416</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.69382691399999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="1">
+        <v>60</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1262434</v>
+      </c>
+      <c r="E50" s="1">
+        <v>9700</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>208855</v>
+      </c>
+      <c r="H50" s="1">
+        <v>4566</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.16543835400000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="1">
+        <v>61</v>
+      </c>
+      <c r="D51" s="1">
+        <v>783326</v>
+      </c>
+      <c r="E51" s="1">
+        <v>7279</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>46988</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1852</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>5.9985243000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="1">
+        <v>62</v>
+      </c>
+      <c r="D52" s="1">
+        <v>549858</v>
+      </c>
+      <c r="E52" s="1">
+        <v>8077</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>8625</v>
+      </c>
+      <c r="H52" s="1">
+        <v>840</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1.5685867999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="1">
+        <v>63</v>
+      </c>
+      <c r="D53" s="1">
+        <v>182968</v>
+      </c>
+      <c r="E53" s="1">
+        <v>5079</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>15568</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1091</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>8.5085913999999999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="1">
+        <v>64</v>
+      </c>
+      <c r="D54" s="1">
+        <v>62458</v>
+      </c>
+      <c r="E54" s="1">
+        <v>3119</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>19716</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1318</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.31566813599999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="1">
+        <v>65</v>
+      </c>
+      <c r="D55" s="1">
+        <v>207128</v>
+      </c>
+      <c r="E55" s="1">
+        <v>4178</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>49264</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2324</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.23784326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="1">
+        <v>66</v>
+      </c>
+      <c r="D56" s="1">
+        <v>130476</v>
+      </c>
+      <c r="E56" s="1">
+        <v>3970</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>6944</v>
+      </c>
+      <c r="H56" s="1">
+        <v>795</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>5.3220513999999997E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="1">
+        <v>67</v>
+      </c>
+      <c r="D57" s="1">
+        <v>43211</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2222</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>27260</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1575</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0.63085788499999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="1">
+        <v>68</v>
+      </c>
+      <c r="D58" s="1">
+        <v>42110</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2220</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>26564</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1559</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.63082402900000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="1">
+        <v>72</v>
+      </c>
+      <c r="D59" s="1">
+        <v>21441</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2416</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>19542</v>
+      </c>
+      <c r="H59" s="1">
+        <v>2234</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0.91143137200000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="1">
+        <v>73</v>
+      </c>
+      <c r="D60" s="1">
+        <v>126590</v>
+      </c>
+      <c r="E60" s="1">
+        <v>5388</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>108502</v>
+      </c>
+      <c r="H60" s="1">
+        <v>4691</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0.85711353999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="1">
+        <v>75</v>
+      </c>
+      <c r="D61" s="1">
+        <v>15919</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1626</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>12276</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1286</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.77115398599999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="1">
+        <v>76</v>
+      </c>
+      <c r="D62" s="1">
+        <v>103526</v>
+      </c>
+      <c r="E62" s="1">
+        <v>4285</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>90632</v>
+      </c>
+      <c r="H62" s="1">
+        <v>3786</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0.87545156499999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="1">
+        <v>80</v>
+      </c>
+      <c r="D63" s="1">
+        <v>24875</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2425</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>22723</v>
+      </c>
+      <c r="H63" s="1">
+        <v>2240</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0.91348743399999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="1">
+        <v>81</v>
+      </c>
+      <c r="D64" s="1">
+        <v>138426</v>
+      </c>
+      <c r="E64" s="1">
+        <v>5576</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>115299</v>
+      </c>
+      <c r="H64" s="1">
+        <v>4773</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0.83292877700000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="1">
+        <v>83</v>
+      </c>
+      <c r="D65" s="1">
+        <v>20546</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1898</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>13121</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1324</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0.63861578699999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="1">
+        <v>84</v>
+      </c>
+      <c r="D66" s="1">
+        <v>111021</v>
+      </c>
+      <c r="E66" s="1">
+        <v>4578</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>95468</v>
+      </c>
+      <c r="H66" s="1">
+        <v>4002</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0.85990941499999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="1">
+        <v>85</v>
+      </c>
+      <c r="D67" s="1">
+        <v>11627</v>
+      </c>
+      <c r="E67" s="1">
+        <v>870</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>593</v>
+      </c>
+      <c r="H67" s="1">
+        <v>146</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>5.1001976999999997E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="1">
+        <v>96</v>
+      </c>
+      <c r="D68" s="1">
+        <v>23444</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1988</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>14489</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1446</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0.61802595900000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="1">
+        <v>176</v>
+      </c>
+      <c r="D69" s="1">
+        <v>26856</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2368</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>15616</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1601</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0.58147156200000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="1">
+        <v>177</v>
+      </c>
+      <c r="D70" s="1">
+        <v>8957</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1133</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>4054</v>
+      </c>
+      <c r="H70" s="1">
+        <v>657</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0.45260688700000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="1">
+        <v>400</v>
+      </c>
+      <c r="D71" s="1">
+        <v>54232204</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2036</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>19106796</v>
+      </c>
+      <c r="H71" s="1">
+        <v>60551</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0.35231459100000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="1">
+        <v>451</v>
+      </c>
+      <c r="D72" s="1">
+        <v>197258272</v>
+      </c>
+      <c r="E72" s="1">
+        <v>8320</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>7646466</v>
+      </c>
+      <c r="H72" s="1">
+        <v>31450</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>3.8763727999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>